--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail14 Features.xlsx
@@ -7402,7 +7402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,29 +7413,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7456,115 +7454,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7581,72 +7569,66 @@
         <v>2.29631068505717e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.06092637531672414</v>
+        <v>7.624875760544428e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.176084136994883</v>
+        <v>3.013295422572154e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.624875760544428e-07</v>
+        <v>-0.04253303531453534</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.013295422572154e-06</v>
+        <v>0.1051189508244519</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04253303531453534</v>
+        <v>0.01285768787757845</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1051189508244519</v>
+        <v>1.64478790888869</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01285768787757845</v>
+        <v>1.462561160981031</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.559300741188516</v>
+        <v>3.596084395741236</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.462561160981031</v>
+        <v>7.45806234756739e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.596084395741236</v>
+        <v>25701723.79126766</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.45806234756739e-15</v>
+        <v>4.242424981573547e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>25701723.79126766</v>
+        <v>4.926636427843357</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.242424981573547e-06</v>
+        <v>0.0001504007688580445</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.926636427843357</v>
+        <v>9.90612947488672</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001504007688580445</v>
+        <v>1.167976002649653</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.90612947488672</v>
+        <v>0.01475903818556941</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.167976002649653</v>
+        <v>2.819219107994099</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01475903818556941</v>
+        <v>0.9494119857145578</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.819219107994099</v>
+        <v>1.834222413453257</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9494119857145578</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.834222413453257</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1654774099131647</v>
       </c>
     </row>
@@ -7661,72 +7643,66 @@
         <v>2.317893931022163e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1121063125839224</v>
+        <v>7.681820783461494e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.169774503576219</v>
+        <v>3.003690910220966e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.681820783461494e-07</v>
+        <v>-0.04107299742804483</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.003690910220966e-06</v>
+        <v>0.1038671190769861</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04107299742804483</v>
+        <v>0.01247554769017626</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1038671190769861</v>
+        <v>1.643754117765457</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01247554769017626</v>
+        <v>1.435079261079072</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.560538122317458</v>
+        <v>3.727613190447456</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.435079261079072</v>
+        <v>6.941032549946571e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.727613190447456</v>
+        <v>27913647.73622762</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.941032549946571e-15</v>
+        <v>3.903172083238403e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>27913647.73622762</v>
+        <v>5.408256339527026</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.903172083238403e-06</v>
+        <v>0.0001511479960194597</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.408256339527026</v>
+        <v>8.526878185745643</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001511479960194597</v>
+        <v>1.330147315489661</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.526878185745643</v>
+        <v>0.01098961583379654</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.330147315489661</v>
+        <v>2.927673889548887</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01098961583379654</v>
+        <v>0.9495380892990513</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.927673889548887</v>
+        <v>1.843428753250503</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9495380892990513</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.843428753250503</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1619216691814391</v>
       </c>
     </row>
@@ -7741,72 +7717,66 @@
         <v>2.337185666321997e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1644626263183862</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.156145024712774</v>
+        <v>2.994121727502756e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.04131172415869461</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.994121727502756e-06</v>
+        <v>0.1026535390438103</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04131172415869461</v>
+        <v>0.01224427457575118</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1026535390438103</v>
+        <v>1.643112147403635</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01224427457575118</v>
+        <v>1.452237586080733</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.559128215379651</v>
+        <v>3.770370227650458</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.452237586080733</v>
+        <v>6.405911424602897e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.770370227650458</v>
+        <v>30207911.34917423</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.405911424602897e-15</v>
+        <v>3.618040491222352e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>30207911.34917423</v>
+        <v>5.845508892521647</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.618040491222352e-06</v>
+        <v>0.0001594270953920196</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.845508892521647</v>
+        <v>8.392181035594579</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001594270953920196</v>
+        <v>1.394798575735192</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.392181035594579</v>
+        <v>0.01122824347725501</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.394798575735192</v>
+        <v>2.895247418303124</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01122824347725501</v>
+        <v>0.9492455882719908</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.895247418303124</v>
+        <v>1.815754454889439</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9492455882719908</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.815754454889439</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1598166193468809</v>
       </c>
     </row>
@@ -7821,72 +7791,66 @@
         <v>2.348607602682204e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.219491648661293</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.129288182627791</v>
+        <v>2.98431623207808e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.04247284282475747</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.98431623207808e-06</v>
+        <v>0.1006235523711127</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04247284282475747</v>
+        <v>0.01192790458840818</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1006235523711127</v>
+        <v>1.6402989450983</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01192790458840818</v>
+        <v>1.473358918001265</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.556315269404191</v>
+        <v>3.756017150105078</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.473358918001265</v>
+        <v>6.454963500856669e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.756017150105078</v>
+        <v>30307078.81543147</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.454963500856669e-15</v>
+        <v>3.596768940958266e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>30307078.81543147</v>
+        <v>5.929006789768829</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.596768940958266e-06</v>
+        <v>0.0001758565954480449</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.929006789768829</v>
+        <v>10.0993582964771</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001758565954480449</v>
+        <v>1.214303818861094</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.0993582964771</v>
+        <v>0.01793685184857403</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.214303818861094</v>
+        <v>2.659173407239962</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01793685184857403</v>
+        <v>0.9489068180966117</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.659173407239962</v>
+        <v>1.841982255865395</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9489068180966117</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.841982255865395</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1601295806608693</v>
       </c>
     </row>
@@ -7901,72 +7865,66 @@
         <v>2.347660321632991e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2767691239503735</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.086186194978876</v>
+        <v>2.974172360238801e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.0437591464716103</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.974172360238801e-06</v>
+        <v>0.09903276519058962</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0437591464716103</v>
+        <v>0.0117218275522564</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09903276519058962</v>
+        <v>1.63693507744374</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0117218275522564</v>
+        <v>1.449093738724534</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.551152305169588</v>
+        <v>3.917056230041268</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.449093738724534</v>
+        <v>5.805425090757623e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.917056230041268</v>
+        <v>34398309.44015907</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.805425090757623e-15</v>
+        <v>3.184909089892986e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>34398309.44015907</v>
+        <v>6.869232619996764</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.184909089892986e-06</v>
+        <v>0.0001957821407643723</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.869232619996764</v>
+        <v>12.01256737330666</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001957821407643723</v>
+        <v>1.087283420099401</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.01256737330666</v>
+        <v>0.02825171040567436</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.087283420099401</v>
+        <v>2.315319799549197</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02825171040567436</v>
+        <v>0.948961599564728</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.315319799549197</v>
+        <v>1.847394228749238</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.948961599564728</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.847394228749238</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1653234151707385</v>
       </c>
     </row>
@@ -7981,72 +7939,66 @@
         <v>2.334483430360754e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3343387151339871</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.028543903031533</v>
+        <v>2.963792934789055e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.04497458382664823</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.963792934789055e-06</v>
+        <v>0.09850682822853295</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04497458382664823</v>
+        <v>0.01172568609961715</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09850682822853295</v>
+        <v>1.706094283011158</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01172568609961715</v>
+        <v>1.594941051799652</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.621068675910863</v>
+        <v>3.847715352527628</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.594941051799652</v>
+        <v>5.463863908175418e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.847715352527628</v>
+        <v>34880067.30628397</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.463863908175418e-15</v>
+        <v>3.262600143953557e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>34880067.30628397</v>
+        <v>6.647441164756979</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.262600143953557e-06</v>
+        <v>0.0001786916351968188</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.647441164756979</v>
+        <v>10.67718463580981</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001786916351968188</v>
+        <v>1.195010867147847</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.67718463580981</v>
+        <v>0.02037125235465444</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.195010867147847</v>
+        <v>2.718764147197975</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02037125235465444</v>
+        <v>0.955428966555948</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.718764147197975</v>
+        <v>1.74886686221821</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.955428966555948</v>
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.74886686221821</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1678087846466305</v>
       </c>
     </row>
@@ -8061,72 +8013,66 @@
         <v>2.30781290326429e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3878501359490721</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.961280084168993</v>
+        <v>2.953059155676246e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.04775033531236611</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.953059155676246e-06</v>
+        <v>0.0964663743051188</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04775033531236611</v>
+        <v>0.01158384213346109</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0964663743051188</v>
+        <v>1.752860810398305</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01158384213346109</v>
+        <v>1.458924078734732</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.671265624603793</v>
+        <v>4.339807615273364</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.458924078734732</v>
+        <v>3.928726985226857e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.339807615273364</v>
+        <v>47213451.86497129</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.928726985226857e-15</v>
+        <v>2.45240146560741e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>47213451.86497129</v>
+        <v>8.757564755425355</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.45240146560741e-06</v>
+        <v>0.0001414038096140757</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8.757564755425355</v>
+        <v>7.9888196494035</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001414038096140757</v>
+        <v>1.760491683250138</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.9888196494035</v>
+        <v>0.009024566384136252</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.760491683250138</v>
+        <v>3.203643758587944</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009024566384136252</v>
+        <v>0.957390040296687</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.203643758587944</v>
+        <v>1.710072492424896</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.957390040296687</v>
+        <v>16</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.710072492424896</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2010994031853757</v>
       </c>
     </row>
@@ -8141,72 +8087,66 @@
         <v>2.262552341732746e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4268853059077402</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9058857720229216</v>
+        <v>2.941705115887762e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.05158975055812475</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.941705115887762e-06</v>
+        <v>0.09394080033942674</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05158975055812475</v>
+        <v>0.01148477512998178</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09394080033942674</v>
+        <v>1.760330158195065</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01148477512998178</v>
+        <v>1.49589550115437</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.675063289253842</v>
+        <v>4.946501626093193</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.49589550115437</v>
+        <v>2.267770791218507e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.946501626093193</v>
+        <v>79239630.29898663</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.267770791218507e-15</v>
+        <v>1.460728103730627e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>79239630.29898663</v>
+        <v>14.23914913112338</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.460728103730627e-06</v>
+        <v>0.0001180668691975549</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14.23914913112338</v>
+        <v>7.167709454509565</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001180668691975549</v>
+        <v>1.385263663936115</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.167709454509565</v>
+        <v>0.006065810417090478</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.385263663936115</v>
+        <v>3.234829410347767</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006065810417090478</v>
+        <v>0.9579350707191725</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.234829410347767</v>
+        <v>1.721017212314681</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9579350707191725</v>
+        <v>16</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.721017212314681</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2287843451512522</v>
       </c>
     </row>
@@ -8221,72 +8161,66 @@
         <v>2.19702625159521e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.438999950949257</v>
+        <v>7.695455887502876e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.906174531574413</v>
+        <v>2.92976049331976e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.695455887502876e-07</v>
+        <v>-0.05531120340700037</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.92976049331976e-06</v>
+        <v>0.09380919800118984</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05531120340700037</v>
+        <v>0.0118595205393566</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09380919800118984</v>
+        <v>1.773498306536471</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0118595205393566</v>
+        <v>1.601501618251891</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.693664221307292</v>
+        <v>4.414166223111554</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.601501618251891</v>
+        <v>1.369720270753747e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.414166223111554</v>
+        <v>126791707.7042924</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.369720270753747e-15</v>
+        <v>9.139324077143508e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>126791707.7042924</v>
+        <v>22.01981091959635</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.139324077143508e-07</v>
+        <v>0.000132558498370431</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>22.01981091959635</v>
+        <v>9.032157651061576</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000132558498370431</v>
+        <v>1.19612697896802</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.032157651061576</v>
+        <v>0.01081410530751823</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.19612697896802</v>
+        <v>2.931507707766617</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01081410530751823</v>
+        <v>0.9583378777070924</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.931507707766617</v>
+        <v>1.692168202090422</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9583378777070924</v>
+        <v>16</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.692168202090422</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2212380056253171</v>
       </c>
     </row>
@@ -8301,72 +8235,66 @@
         <v>2.11622417879917e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.41925986468632</v>
+        <v>7.672161634356933e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.000015952175077</v>
+        <v>2.917540542048432e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.672161634356933e-07</v>
+        <v>-0.05770019495625307</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.917540542048432e-06</v>
+        <v>0.09709575132944556</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05770019495625307</v>
+        <v>0.0127571470675216</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09709575132944556</v>
+        <v>1.78897653139731</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0127571470675216</v>
+        <v>1.809025498375561</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.712727338198096</v>
+        <v>4.093980712485641</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.809025498375561</v>
+        <v>1.26828860824394e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.093980712485641</v>
+        <v>132527052.9990571</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.26828860824394e-15</v>
+        <v>8.746533546758809e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>132527052.9990571</v>
+        <v>22.275485224487</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.746533546758809e-07</v>
+        <v>0.0001443724551439752</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>22.275485224487</v>
+        <v>10.14490082087273</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001443724551439752</v>
+        <v>1.162156697147115</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.14490082087273</v>
+        <v>0.01485867053948962</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.162156697147115</v>
+        <v>2.789346697310322</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01485867053948962</v>
+        <v>0.9589936447008109</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.789346697310322</v>
+        <v>1.675941577891533</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9589936447008109</v>
+        <v>19</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.675941577891533</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2143538955626676</v>
       </c>
     </row>
@@ -8381,72 +8309,66 @@
         <v>2.029962384220349e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3773496089129003</v>
+        <v>7.409069222186187e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.180084948364324</v>
+        <v>2.905495838783352e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.409069222186187e-07</v>
+        <v>-0.05810264792430433</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.905495838783352e-06</v>
+        <v>0.1008864731295038</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05810264792430433</v>
+        <v>0.01355162107440548</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1008864731295038</v>
+        <v>1.75622643266629</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01355162107440548</v>
+        <v>1.792446409903063</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.677607194161816</v>
+        <v>4.418044198491863</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.792446409903063</v>
+        <v>1.350151746903053e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.418044198491863</v>
+        <v>125626228.7535738</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.350151746903053e-15</v>
+        <v>9.1350421098732e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>125626228.7535738</v>
+        <v>21.30802648557921</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.1350421098732e-07</v>
+        <v>0.0001458306962131683</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>21.30802648557921</v>
+        <v>10.12398381119812</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001458306962131683</v>
+        <v>1.240504360432708</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.12398381119812</v>
+        <v>0.0149469242387793</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.240504360432708</v>
+        <v>2.994885218874835</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0149469242387793</v>
+        <v>0.9580207126855148</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.994885218874835</v>
+        <v>1.709521896388201</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9580207126855148</v>
+        <v>19</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.709521896388201</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2135333734819899</v>
       </c>
     </row>
@@ -8461,72 +8383,66 @@
         <v>1.950536314964864e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3385303186163694</v>
+        <v>6.883605442042731e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.375014244913562</v>
+        <v>2.894074042927446e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.883605442042731e-07</v>
+        <v>-0.05654598741152773</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.894074042927446e-06</v>
+        <v>0.1014247665287267</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05654598741152773</v>
+        <v>0.0134788196704203</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1014247665287267</v>
+        <v>1.737940719191842</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0134788196704203</v>
+        <v>1.66692183937626</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.655658427801193</v>
+        <v>4.358318482942886</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.66692183937626</v>
+        <v>1.727706653623689e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.358318482942886</v>
+        <v>98694254.54298635</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.727706653623689e-15</v>
+        <v>1.157497044229392e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>98694254.54298635</v>
+        <v>16.82882320351652</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.157497044229392e-06</v>
+        <v>0.0001460860206824247</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>16.82882320351652</v>
+        <v>8.860525993548684</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001460860206824247</v>
+        <v>1.584302391182177</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.860525993548684</v>
+        <v>0.01146905583977411</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.584302391182177</v>
+        <v>3.206942920786645</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01146905583977411</v>
+        <v>0.9571178453845204</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.206942920786645</v>
+        <v>1.757194284788749</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9571178453845204</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.757194284788749</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2177183159878844</v>
       </c>
     </row>
@@ -8541,72 +8457,66 @@
         <v>1.886090756233836e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3230783445590203</v>
+        <v>6.303350219360718e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.516426294004852</v>
+        <v>2.88343941941001e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.303350219360718e-07</v>
+        <v>-0.05437804499685922</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.88343941941001e-06</v>
+        <v>0.09975022798288438</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05437804499685922</v>
+        <v>0.01290138804679515</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09975022798288438</v>
+        <v>1.722957882598796</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01290138804679515</v>
+        <v>1.72549016541418</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.642338506562865</v>
+        <v>4.356546625482677</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.72549016541418</v>
+        <v>1.729112295619157e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.356546625482677</v>
+        <v>97980903.31398109</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.729112295619157e-15</v>
+        <v>1.162272049951597e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>97980903.31398109</v>
+        <v>16.59992313604319</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.162272049951597e-06</v>
+        <v>0.000128070657427419</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>16.59992313604319</v>
+        <v>8.191836494692041</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000128070657427419</v>
+        <v>1.433968673423223</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.191836494692041</v>
+        <v>0.008594333250345362</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.433968673423223</v>
+        <v>3.259308451412934</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008594333250345362</v>
+        <v>0.9537971455652148</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.259308451412934</v>
+        <v>1.702783536047924</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9537971455652148</v>
+        <v>21</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.702783536047924</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2244303793748912</v>
       </c>
     </row>
@@ -8621,72 +8531,66 @@
         <v>1.836753094432525e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3333146643814528</v>
+        <v>5.774316014250635e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.591236070887693</v>
+        <v>2.873549882722834e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.774316014250635e-07</v>
+        <v>-0.05194204439775309</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.873549882722834e-06</v>
+        <v>0.09784990508224209</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05194204439775309</v>
+        <v>0.0122683446299208</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09784990508224209</v>
+        <v>1.721647595520192</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0122683446299208</v>
+        <v>1.775954811148424</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.639515148840681</v>
+        <v>4.271421764242968</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.775954811148424</v>
+        <v>1.798717746167795e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.271421764242968</v>
+        <v>94325523.877413</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.798717746167795e-15</v>
+        <v>1.210388992267337e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>94325523.877413</v>
+        <v>16.00373941581374</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.210388992267337e-06</v>
+        <v>0.0001195971407441774</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>16.00373941581374</v>
+        <v>8.939484595747274</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001195971407441774</v>
+        <v>1.257653641072727</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.939484595747274</v>
+        <v>0.009557531930907141</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.257653641072727</v>
+        <v>3.14944966264495</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009557531930907141</v>
+        <v>0.9532664940691257</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.14944966264495</v>
+        <v>1.718879526906988</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9532664940691257</v>
+        <v>21</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.718879526906988</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2389781172834463</v>
       </c>
     </row>
@@ -8701,72 +8605,66 @@
         <v>1.798870857483222e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3637417696413843</v>
+        <v>5.35760439176269e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.612341299668792</v>
+        <v>2.864328340521655e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.35760439176269e-07</v>
+        <v>-0.04961639863438533</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.864328340521655e-06</v>
+        <v>0.09717403581007582</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04961639863438533</v>
+        <v>0.0119023974867525</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09717403581007582</v>
+        <v>1.729125632556108</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0119023974867525</v>
+        <v>1.707950454826506</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.649671764400011</v>
+        <v>4.04099357044102</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.707950454826506</v>
+        <v>2.009701760401243e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.04099357044102</v>
+        <v>88574634.71060559</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.009701760401243e-15</v>
+        <v>1.306414975871514e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>88574634.71060559</v>
+        <v>15.76704665876932</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.306414975871514e-06</v>
+        <v>0.0001090737402917768</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>15.76704665876932</v>
+        <v>8.279190062190303</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001090737402917768</v>
+        <v>1.223556236791973</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.279190062190303</v>
+        <v>0.007476458228781194</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.223556236791973</v>
+        <v>3.236119977247557</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.007476458228781194</v>
+        <v>0.9549025223530825</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.236119977247557</v>
+        <v>1.723148325539438</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9549025223530825</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.723148325539438</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.241830996536884</v>
       </c>
     </row>
@@ -8781,72 +8679,66 @@
         <v>1.767716471038377e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4076733947687057</v>
+        <v>5.024563674292764e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.597785274860437</v>
+        <v>2.855679409416772e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.024563674292764e-07</v>
+        <v>-0.04738067503115247</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.855679409416772e-06</v>
+        <v>0.09738480002814631</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04738067503115247</v>
+        <v>0.01172650003848428</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09738480002814631</v>
+        <v>1.675076442369518</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01172650003848428</v>
+        <v>1.697348245240511</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.591405962206536</v>
+        <v>4.007152798846985</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.697348245240511</v>
+        <v>2.043789321524255e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.007152798846985</v>
+        <v>89409462.71923667</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.043789321524255e-15</v>
+        <v>1.271198046608265e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>89409462.71923667</v>
+        <v>16.33815816183442</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.271198046608265e-06</v>
+        <v>0.0001052304897484764</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>16.33815816183442</v>
+        <v>7.537824471549022</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001052304897484764</v>
+        <v>1.233946169721094</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.537824471549022</v>
+        <v>0.005979069915613073</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.233946169721094</v>
+        <v>3.30345768714822</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005979069915613073</v>
+        <v>0.952808446643534</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.30345768714822</v>
+        <v>1.733826694998431</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.952808446643534</v>
+        <v>19</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.733826694998431</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2383805858197168</v>
       </c>
     </row>
@@ -8861,72 +8753,66 @@
         <v>1.742740574738035e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4626493585160301</v>
+        <v>4.718596221292817e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.551823337626991</v>
+        <v>2.847568462981697e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.718596221292817e-07</v>
+        <v>-0.04513705214561964</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.847568462981697e-06</v>
+        <v>0.09660094336573338</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04513705214561964</v>
+        <v>0.01136643845221577</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.09660094336573338</v>
+        <v>1.668265801446139</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01136643845221577</v>
+        <v>1.676721613977975</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.57804370593375</v>
+        <v>3.77389056076274</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.676721613977975</v>
+        <v>2.304248577477647e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.77389056076274</v>
+        <v>78197037.8208032</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.304248577477647e-15</v>
+        <v>1.447548183681621e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>78197037.8208032</v>
+        <v>14.08996556775089</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.447548183681621e-06</v>
+        <v>0.000114875719509021</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>14.08996556775089</v>
+        <v>7.694860899692289</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000114875719509021</v>
+        <v>1.360701719717163</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.694860899692289</v>
+        <v>0.006801892932777688</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.360701719717163</v>
+        <v>3.160928672913756</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006801892932777688</v>
+        <v>0.9521113259928046</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.160928672913756</v>
+        <v>1.798038098503937</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9521113259928046</v>
+        <v>19</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.798038098503937</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2486346984476942</v>
       </c>
     </row>
@@ -8941,72 +8827,66 @@
         <v>1.724932219622667e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5252782508621233</v>
+        <v>4.76876366529751e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.478504620770862</v>
+        <v>2.839897477741758e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.76876366529751e-07</v>
+        <v>-0.04355291548056705</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.839897477741758e-06</v>
+        <v>0.09593610570357765</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04355291548056705</v>
+        <v>0.01109911582850488</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.09593610570357765</v>
+        <v>1.659149421752063</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01109911582850488</v>
+        <v>1.583382974938969</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.567767084200599</v>
+        <v>4.07063212960095</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.583382974938969</v>
+        <v>1.980542742650823e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.07063212960095</v>
+        <v>91682510.35126127</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.980542742650823e-15</v>
+        <v>1.229622666546236e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>91682510.35126127</v>
+        <v>16.647813877045</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.229622666546236e-06</v>
+        <v>0.0001346502513121717</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>16.647813877045</v>
+        <v>8.87022337512326</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001346502513121717</v>
+        <v>1.506946720964525</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.87022337512326</v>
+        <v>0.01059439793932359</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.506946720964525</v>
+        <v>3.008288098597915</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01059439793932359</v>
+        <v>0.9514606404116878</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.008288098597915</v>
+        <v>1.810130976444029</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9514606404116878</v>
+        <v>23</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.810130976444029</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.240851104464629</v>
       </c>
     </row>
@@ -9021,72 +8901,66 @@
         <v>1.712105218456291e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5908137782308097</v>
+        <v>4.873579094498811e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.386431911229389</v>
+        <v>2.832469413271425e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.873579094498811e-07</v>
+        <v>-0.04315071418735106</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.832469413271425e-06</v>
+        <v>0.09628643975267158</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04315071418735106</v>
+        <v>0.0111329358441507</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.09628643975267158</v>
+        <v>1.670260098459578</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0111329358441507</v>
+        <v>1.708040619127278</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.58222235505957</v>
+        <v>4.06762208819853</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.708040619127278</v>
+        <v>1.528148215185921e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.06762208819853</v>
+        <v>117256827.9099366</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.528148215185921e-15</v>
+        <v>9.672184495845643e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>117256827.9099366</v>
+        <v>21.01075995546554</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>9.672184495845643e-07</v>
+        <v>0.0001304495589215118</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>21.01075995546554</v>
+        <v>8.913397691041176</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001304495589215118</v>
+        <v>1.578496902408445</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.913397691041176</v>
+        <v>0.01036404244501082</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.578496902408445</v>
+        <v>3.039670381144821</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01036404244501082</v>
+        <v>0.9514011966438178</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.039670381144821</v>
+        <v>1.769522969123756</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9514011966438178</v>
+        <v>24</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.769522969123756</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2514153399954843</v>
       </c>
     </row>
@@ -9101,72 +8975,66 @@
         <v>1.699900108546174e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6569926046815294</v>
+        <v>4.943955223657174e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.279642266451456</v>
+        <v>2.825039839561929e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.943955223657174e-07</v>
+        <v>-0.04408456225961035</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.825039839561929e-06</v>
+        <v>0.09679884597621946</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04408456225961035</v>
+        <v>0.01131363883150059</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09679884597621946</v>
+        <v>1.674460272488158</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01131363883150059</v>
+        <v>1.788091289897398</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.58623011954869</v>
+        <v>3.774784734363788</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.788091289897398</v>
+        <v>1.774443977555971e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.774784734363788</v>
+        <v>97993840.93314952</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.774443977555971e-15</v>
+        <v>1.154018946757333e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>97993840.93314952</v>
+        <v>17.03961795961977</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.154018946757333e-06</v>
+        <v>0.0001173640480580014</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>17.03961795961977</v>
+        <v>7.917551249026288</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001173640480580014</v>
+        <v>1.660295244131155</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.917551249026288</v>
+        <v>0.007357272585885945</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.660295244131155</v>
+        <v>3.129181001313957</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.007357272585885945</v>
+        <v>0.9504719214562419</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.129181001313957</v>
+        <v>1.770227171506863</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9504719214562419</v>
+        <v>19</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.770227171506863</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2659891791369554</v>
       </c>
     </row>
@@ -9181,72 +9049,66 @@
         <v>1.684245052353375e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.7243815940825237</v>
+        <v>4.955773291697558e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.158364516922525</v>
+        <v>2.817493620081747e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.955773291697558e-07</v>
+        <v>-0.04498997487775479</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.817493620081747e-06</v>
+        <v>0.09742066018054575</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04498997487775479</v>
+        <v>0.01151503314741073</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09742066018054575</v>
+        <v>1.670265996134999</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01151503314741073</v>
+        <v>1.665796000803087</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.585354062752147</v>
+        <v>3.876743683383979</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.665796000803087</v>
+        <v>2.185411963054005e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.876743683383979</v>
+        <v>78555696.5152012</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.185411963054005e-15</v>
+        <v>1.440069951415344e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>78555696.5152012</v>
+        <v>13.48617166210745</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.440069951415344e-06</v>
+        <v>0.0001140477447307154</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>13.48617166210745</v>
+        <v>7.428901425898762</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001140477447307154</v>
+        <v>1.53876950823827</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.428901425898762</v>
+        <v>0.006294132672830736</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.53876950823827</v>
+        <v>3.123104243411836</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.006294132672830736</v>
+        <v>0.9493605791234174</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.123104243411836</v>
+        <v>1.778828455721489</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9493605791234174</v>
+        <v>19</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.778828455721489</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2496313455138541</v>
       </c>
     </row>
@@ -9261,72 +9123,66 @@
         <v>1.662510198672208e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.794921439915919</v>
+        <v>4.955773291697558e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.021824312031079</v>
+        <v>2.809904438087547e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.955773291697558e-07</v>
+        <v>-0.04568475783458273</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.809904438087547e-06</v>
+        <v>0.09858830414698584</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04568475783458273</v>
+        <v>0.01180612257388542</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.09858830414698584</v>
+        <v>1.671865568293034</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01180612257388542</v>
+        <v>1.689549922492906</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.588060714729324</v>
+        <v>3.603371340554021</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.689549922492906</v>
+        <v>2.665302081300689e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.603371340554021</v>
+        <v>65917490.00776672</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.665302081300689e-15</v>
+        <v>1.724579935215888e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>65917490.00776672</v>
+        <v>11.58104535612106</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.724579935215888e-06</v>
+        <v>0.0001236987706357273</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>11.58104535612106</v>
+        <v>7.844805446902583</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001236987706357273</v>
+        <v>1.366119896644114</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.844805446902583</v>
+        <v>0.007612542641946477</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.366119896644114</v>
+        <v>3.081849765468248</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007612542641946477</v>
+        <v>0.9485339029496067</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.081849765468248</v>
+        <v>1.777323920265269</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9485339029496067</v>
+        <v>19</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.777323920265269</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2096352656090915</v>
       </c>
     </row>
@@ -9341,72 +9197,66 @@
         <v>1.630649893904648e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.8685478842140585</v>
+        <v>4.955773291697558e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.8718594260370711</v>
+        <v>2.802289481820375e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.955773291697558e-07</v>
+        <v>-0.04671623155678776</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.802289481820375e-06</v>
+        <v>0.1003104817369533</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04671623155678776</v>
+        <v>0.01224350103643066</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1003104817369533</v>
+        <v>1.658756936644256</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01224350103643066</v>
+        <v>1.746947434428607</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.572346249400381</v>
+        <v>3.543730399143499</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.746947434428607</v>
+        <v>2.755771030211641e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.543730399143499</v>
+        <v>64295711.34599224</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.755771030211641e-15</v>
+        <v>1.762656809538826e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>64295711.34599224</v>
+        <v>11.39218795205174</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.762656809538826e-06</v>
+        <v>0.0001460568099365684</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>11.39218795205174</v>
+        <v>9.110960144313275</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001460568099365684</v>
+        <v>1.263845723006508</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.110960144313275</v>
+        <v>0.01212411660349708</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.263845723006508</v>
+        <v>2.850168607263174</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01212411660349708</v>
+        <v>0.9486853129823452</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.850168607263174</v>
+        <v>1.779820925742905</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9486853129823452</v>
+        <v>19</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.779820925742905</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1889136379512224</v>
       </c>
     </row>
@@ -9421,72 +9271,66 @@
         <v>1.587079703655692e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.9428481200484968</v>
+        <v>4.955773291697558e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.7139264007159585</v>
+        <v>2.794732968912092e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.955773291697558e-07</v>
+        <v>-0.04693337590524681</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.794732968912092e-06</v>
+        <v>0.104500192731931</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04693337590524681</v>
+        <v>0.01312189466631968</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.104500192731931</v>
+        <v>1.659221982775935</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01312189466631968</v>
+        <v>1.694954666490549</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.574429389258221</v>
+        <v>3.53845900053753</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.694954666490549</v>
+        <v>2.763987933755436e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.53845900053753</v>
+        <v>66155579.44746798</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.763987933755436e-15</v>
+        <v>1.717621213503651e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>66155579.44746798</v>
+        <v>12.09676094411994</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.717621213503651e-06</v>
+        <v>0.0001529052214646964</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>12.09676094411994</v>
+        <v>9.787200676522161</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001529052214646964</v>
+        <v>1.220077521548133</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.787200676522161</v>
+        <v>0.01464668368434968</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.220077521548133</v>
+        <v>2.698286470592078</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01464668368434968</v>
+        <v>0.9483710950788921</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.698286470592078</v>
+        <v>1.789259683756354</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9483710950788921</v>
+        <v>19</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.789259683756354</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1936789822038366</v>
       </c>
     </row>
@@ -9501,72 +9345,66 @@
         <v>1.533523558093246e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.016407945366971</v>
+        <v>4.953490558690976e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.5493771366580029</v>
+        <v>2.787460298277763e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.953490558690976e-07</v>
+        <v>-0.04590941821391366</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.787460298277763e-06</v>
+        <v>0.1116982108902411</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04590941821391366</v>
+        <v>0.01458145871880401</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1116982108902411</v>
+        <v>1.651494602284774</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01458145871880401</v>
+        <v>1.732241619963945</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.565531734534798</v>
+        <v>3.733808432664603</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.732241619963945</v>
+        <v>3.156802038003878e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.733808432664603</v>
+        <v>58024211.20098734</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.156802038003878e-15</v>
+        <v>1.955160369439466e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>58024211.20098734</v>
+        <v>10.62834978266622</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.955160369439466e-06</v>
+        <v>0.0001350778918308205</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>10.62834978266622</v>
+        <v>8.788246020534933</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001350778918308205</v>
+        <v>1.276591163948264</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.788246020534933</v>
+        <v>0.01043250703650941</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.276591163948264</v>
+        <v>2.883516418116877</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01043250703650941</v>
+        <v>0.9476140805473562</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.883516418116877</v>
+        <v>1.796121988286528</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9476140805473562</v>
+        <v>10</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.796121988286528</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2127234353805461</v>
       </c>
     </row>
@@ -9581,72 +9419,66 @@
         <v>1.472838046933171e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.087769538878278</v>
+        <v>4.856847990198111e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.3737742025284296</v>
+        <v>2.78077477979263e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.856847990198111e-07</v>
+        <v>-0.04267444544794624</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.78077477979263e-06</v>
+        <v>0.1220167303832244</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04267444544794624</v>
+        <v>0.01670511286154547</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1220167303832244</v>
+        <v>1.601704533069768</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01670511286154547</v>
+        <v>1.556745103624612</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.519664079319156</v>
+        <v>3.638705604703147</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.556745103624612</v>
+        <v>3.323973656903052e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.638705604703147</v>
+        <v>57319498.12879463</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.323973656903052e-15</v>
+        <v>1.910773251601997e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>57319498.12879463</v>
+        <v>10.92099810280936</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.910773251601997e-06</v>
+        <v>0.0001207537936802641</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>10.92099810280936</v>
+        <v>7.145623943102612</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001207537936802641</v>
+        <v>1.458142376991847</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.145623943102612</v>
+        <v>0.00616568164559363</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.458142376991847</v>
+        <v>3.147107422340443</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.00616568164559363</v>
+        <v>0.9432499564911276</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.147107422340443</v>
+        <v>1.774244923526753</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9432499564911276</v>
+        <v>10</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.774244923526753</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2196283983698921</v>
       </c>
     </row>
@@ -9661,72 +9493,66 @@
         <v>1.410268032399993e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.156530250725758</v>
+        <v>4.710743687084357e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.1750929452793115</v>
+        <v>2.774876796589777e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.710743687084357e-07</v>
+        <v>-0.03932773267410313</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.774876796589777e-06</v>
+        <v>0.131323230914959</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.03932773267410313</v>
+        <v>0.01879025284035305</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.131323230914959</v>
+        <v>1.597731558285695</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01879025284035305</v>
+        <v>1.581778690210015</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.513323292604231</v>
+        <v>3.929993808356203</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.581778690210015</v>
+        <v>3.749987449899382e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.929993808356203</v>
+        <v>50886401.30666615</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.749987449899382e-15</v>
+        <v>2.145612696775538e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>50886401.30666615</v>
+        <v>9.710314394731721</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.145612696775538e-06</v>
+        <v>0.0001304996997237429</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9.710314394731721</v>
+        <v>6.848443008563135</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001304996997237429</v>
+        <v>1.909893638299558</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.848443008563135</v>
+        <v>0.00612058881591234</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.909893638299558</v>
+        <v>3.23668512918989</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.00612058881591234</v>
+        <v>0.9439271046496505</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.23668512918989</v>
+        <v>1.862320754561196</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9439271046496505</v>
+        <v>10</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.862320754561196</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1930565351587432</v>
       </c>
     </row>
@@ -9741,72 +9567,66 @@
         <v>1.346952225896816e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.219575380173945</v>
+        <v>4.614273354893124e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.03872758167851442</v>
+        <v>2.76958025141682e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.614273354893124e-07</v>
+        <v>-0.03768299059986736</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.76958025141682e-06</v>
+        <v>0.1393633140110504</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03768299059986736</v>
+        <v>0.02084115231996116</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1393633140110504</v>
+        <v>1.617761023106628</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02084115231996116</v>
+        <v>1.643271894260352</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.534862588456516</v>
+        <v>3.544108010021886</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.643271894260352</v>
+        <v>4.869461346372211e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.544108010021886</v>
+        <v>39075130.88370976</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.869461346372211e-15</v>
+        <v>2.810873146204085e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>39075130.88370976</v>
+        <v>7.435014255098787</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.810873146204085e-06</v>
+        <v>0.0001395384746911201</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>7.435014255098787</v>
+        <v>9.156041276266819</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001395384746911201</v>
+        <v>1.58513771409182</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.156041276266819</v>
+        <v>0.01169794176576657</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.58513771409182</v>
+        <v>3.174791562839547</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01169794176576657</v>
+        <v>0.9464399011148511</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.174791562839547</v>
+        <v>1.833840974722828</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9464399011148511</v>
+        <v>7</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.833840974722828</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1853601929881594</v>
       </c>
     </row>
@@ -9821,72 +9641,66 @@
         <v>1.284393353243093e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.278734306696648</v>
+        <v>4.416405510852551e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.2719886451534888</v>
+        <v>2.764741936295388e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.416405510852551e-07</v>
+        <v>-0.03556298756172235</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.764741936295388e-06</v>
+        <v>0.146168267900627</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.03556298756172235</v>
+        <v>0.02262696779970754</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.146168267900627</v>
+        <v>1.571010987583245</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02262696779970754</v>
+        <v>1.589005539492667</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.486471459671607</v>
+        <v>3.483358681303184</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.589005539492667</v>
+        <v>5.040787951696262e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.483358681303184</v>
+        <v>38896978.20388518</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.040787951696262e-15</v>
+        <v>2.764670714546568e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>38896978.20388518</v>
+        <v>7.626585714652744</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.764670714546568e-06</v>
+        <v>0.0001242697269976931</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>7.626585714652744</v>
+        <v>10.44278926929235</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001242697269976931</v>
+        <v>1.177895752155538</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.44278926929235</v>
+        <v>0.01355184334511224</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.177895752155538</v>
+        <v>3.047966133237412</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01355184334511224</v>
+        <v>0.9425439094260796</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.047966133237412</v>
+        <v>1.807015493303336</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9425439094260796</v>
+        <v>8</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.807015493303336</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1981673527041336</v>
       </c>
     </row>
@@ -9901,72 +9715,66 @@
         <v>1.227549702731705e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.340640380990941</v>
+        <v>4.351917152548847e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.5529020093035668</v>
+        <v>2.760508519553933e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.351917152548847e-07</v>
+        <v>-0.03166593298638662</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.760508519553933e-06</v>
+        <v>0.1525031472285781</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03166593298638662</v>
+        <v>0.02425646320791773</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1525031472285781</v>
+        <v>1.496299314093807</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02425646320791773</v>
+        <v>1.575624494988316</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.420589393691514</v>
+        <v>3.442982855702679</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.575624494988316</v>
+        <v>5.159707712466056e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.442982855702679</v>
+        <v>38848934.67769639</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.159707712466056e-15</v>
+        <v>2.502261406853304e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>38848934.67769639</v>
+        <v>7.787235852096789</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.502261406853304e-06</v>
+        <v>0.0001263801738274201</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.787235852096789</v>
+        <v>9.298166938388828</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001263801738274201</v>
+        <v>1.144762050291249</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.298166938388828</v>
+        <v>0.01092631273378742</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.144762050291249</v>
+        <v>2.979018760671721</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01092631273378742</v>
+        <v>0.933303423106342</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.979018760671721</v>
+        <v>1.835872092963956</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.933303423106342</v>
+        <v>9</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.835872092963956</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1971065339835549</v>
       </c>
     </row>
@@ -9981,72 +9789,66 @@
         <v>1.177118267009711e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.404160362250056</v>
+        <v>4.351917152548847e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.8793317387154542</v>
+        <v>2.756879290956936e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.351917152548847e-07</v>
+        <v>-0.02940403546641725</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.756879290956936e-06</v>
+        <v>0.1585529244413442</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.02940403546641725</v>
+        <v>0.02600279580782886</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1585529244413442</v>
+        <v>1.484487429124897</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02600279580782886</v>
+        <v>1.567088131506467</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.402346502767518</v>
+        <v>3.956072103616337</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.567088131506467</v>
+        <v>8.041116242100269e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.956072103616337</v>
+        <v>25231589.60046968</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>8.041116242100269e-15</v>
+        <v>3.811432118066744e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>25231589.60046968</v>
+        <v>5.11924087136691</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.811432118066744e-06</v>
+        <v>0.0001305952596077095</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5.11924087136691</v>
+        <v>8.46631865668853</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001305952596077095</v>
+        <v>1.267566715659888</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.46631865668853</v>
+        <v>0.009360879054061568</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.267566715659888</v>
+        <v>2.982666737625643</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.009360879054061568</v>
+        <v>0.9307007050474645</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.982666737625643</v>
+        <v>1.909294354542898</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9307007050474645</v>
+        <v>8</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.909294354542898</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.200664329203648</v>
       </c>
     </row>
@@ -10061,72 +9863,66 @@
         <v>1.128272408436837e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.474250549950164</v>
+        <v>4.351917152548847e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.269349657981437</v>
+        <v>2.753402602267204e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.351917152548847e-07</v>
+        <v>-0.03168095536850328</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.753402602267204e-06</v>
+        <v>0.1657228500061434</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.03168095536850328</v>
+        <v>0.02846614082015321</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1657228500061434</v>
+        <v>1.447446614260753</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02846614082015321</v>
+        <v>1.591957632758354</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.371235886493981</v>
+        <v>3.725402743723216</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.591957632758354</v>
+        <v>9.067723672812515e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.725402743723216</v>
+        <v>22974359.76156924</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.067723672812515e-15</v>
+        <v>4.115156405798489e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>22974359.76156924</v>
+        <v>4.786136848775507</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.115156405798489e-06</v>
+        <v>0.0001193654195581426</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>4.786136848775507</v>
+        <v>8.29059794972415</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001193654195581426</v>
+        <v>1.749166287391201</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.29059794972415</v>
+        <v>0.008204464462470711</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.749166287391201</v>
+        <v>3.211141290619273</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008204464462470711</v>
+        <v>0.9258810538919489</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.211141290619273</v>
+        <v>1.84233665744636</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9258810538919489</v>
+        <v>8</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.84233665744636</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2337176950573164</v>
       </c>
     </row>
@@ -10141,72 +9937,66 @@
         <v>1.073623002476666e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.551962333792042</v>
+        <v>4.351917152548847e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.748582763775755</v>
+        <v>2.749598110514314e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.351917152548847e-07</v>
+        <v>-0.03810928391061073</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.749598110514314e-06</v>
+        <v>0.1739860893195759</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.03810928391061073</v>
+        <v>0.03171888879597459</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1739860893195759</v>
+        <v>1.441979724108764</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03171888879597459</v>
+        <v>1.519404063530852</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.362699437323729</v>
+        <v>3.720427591767483</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.519404063530852</v>
+        <v>9.091991564604659e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.720427591767483</v>
+        <v>23684492.26658946</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.091991564604659e-15</v>
+        <v>4.021410465919814e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>23684492.26658946</v>
+        <v>5.100199709457767</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.021410465919814e-06</v>
+        <v>0.0001151934523483793</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>5.100199709457767</v>
+        <v>9.188923557999521</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001151934523483793</v>
+        <v>1.890986533674456</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.188923557999521</v>
+        <v>0.009726510761445871</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.890986533674456</v>
+        <v>3.356984997621876</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.009726510761445871</v>
+        <v>0.9239598975531105</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.356984997621876</v>
+        <v>1.89232281583142</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9239598975531105</v>
+        <v>5</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.89232281583142</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.266720512520658</v>
       </c>
     </row>
@@ -10221,72 +10011,66 @@
         <v>1.003525513222129e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.61033136379097</v>
+        <v>4.351917152548847e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.24772128458739</v>
+        <v>2.745149356386096e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.351917152548847e-07</v>
+        <v>-0.0476786720105066</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.745149356386096e-06</v>
+        <v>0.1825797562258063</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0476786720105066</v>
+        <v>0.03560500438242866</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1825797562258063</v>
+        <v>1.450473167965862</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03560500438242866</v>
+        <v>1.483469112642953</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.368497344280833</v>
+        <v>3.670586671339025</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.483469112642953</v>
+        <v>9.340578415060809e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.670586671339025</v>
+        <v>23703349.94317807</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.340578415060809e-15</v>
+        <v>4.089771786582102e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>23703349.94317807</v>
+        <v>5.24799276006558</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.089771786582102e-06</v>
+        <v>0.0001038383904810618</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>5.24799276006558</v>
+        <v>7.571362925400425</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001038383904810618</v>
+        <v>1.930526377014428</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.571362925400425</v>
+        <v>0.005952591448620904</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.930526377014428</v>
+        <v>3.384215548058221</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.005952591448620904</v>
+        <v>0.9259770753016936</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.384215548058221</v>
+        <v>1.901530704095316</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9259770753016936</v>
+        <v>4</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.901530704095316</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.268649524010367</v>
       </c>
     </row>
@@ -10301,72 +10085,66 @@
         <v>9.148715434217899e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.589880697501995</v>
+        <v>4.332435321276748e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2.497337844231154</v>
+        <v>2.740185839828163e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.332435321276748e-07</v>
+        <v>-0.05496425204938288</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.740185839828163e-06</v>
+        <v>0.1993607986351466</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05496425204938288</v>
+        <v>0.04276492721530085</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1993607986351466</v>
+        <v>1.45426994443696</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.04276492721530085</v>
+        <v>1.452469571481119</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.373841770907359</v>
+        <v>3.63690909252316</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.452469571481119</v>
+        <v>9.51436582587654e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.63690909252316</v>
+        <v>23199899.47534091</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>9.51436582587654e-15</v>
+        <v>4.200450265529087e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>23199899.47534091</v>
+        <v>5.12096788393905</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>4.200450265529087e-06</v>
+        <v>0.0001004766940050453</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>5.12096788393905</v>
+        <v>6.538773213536263</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001004766940050453</v>
+        <v>1.499351374249934</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>6.538773213536263</v>
+        <v>0.00429593683062263</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.499351374249934</v>
+        <v>3.309834961693702</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.00429593683062263</v>
+        <v>0.9277565255549697</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.309834961693702</v>
+        <v>1.872034488260491</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9277565255549697</v>
+        <v>4</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.872034488260491</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2491437658265278</v>
       </c>
     </row>
@@ -10381,72 +10159,66 @@
         <v>8.19975325473017e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.462341870079542</v>
+        <v>4.091592826717612e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.314085442363787</v>
+        <v>2.735309873160035e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.091592826717612e-07</v>
+        <v>-0.05655778044476811</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.735309873160035e-06</v>
+        <v>0.2202941099953348</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05655778044476811</v>
+        <v>0.05171765715297391</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2202941099953348</v>
+        <v>1.458557816817996</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.05171765715297391</v>
+        <v>1.434766945274747</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.375745795705384</v>
+        <v>3.606530702106792</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.434766945274747</v>
+        <v>9.675322945884935e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.606530702106792</v>
+        <v>22950780.79389566</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>9.675322945884935e-15</v>
+        <v>4.25184194491708e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>22950780.79389566</v>
+        <v>5.096363538282461</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.25184194491708e-06</v>
+        <v>0.0001119810630252128</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>5.096363538282461</v>
+        <v>7.360976200663842</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001119810630252128</v>
+        <v>1.389385301669972</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.360976200663842</v>
+        <v>0.006067578629709195</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.389385301669972</v>
+        <v>3.148170375325044</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.006067578629709195</v>
+        <v>0.9268472012050468</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.148170375325044</v>
+        <v>1.896682704014703</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9268472012050468</v>
+        <v>4</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.896682704014703</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2258919416814822</v>
       </c>
     </row>
@@ -10461,72 +10233,66 @@
         <v>7.320594187099887e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.24041498089776</v>
+        <v>3.715682612026894e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1.751972581647854</v>
+        <v>2.731020375016174e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>3.715682612026894e-07</v>
+        <v>-0.05371146350544324</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.731020375016174e-06</v>
+        <v>0.2401826625857115</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05371146350544324</v>
+        <v>0.06055370654836485</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.2401826625857115</v>
+        <v>1.411833103004488</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.06055370654836485</v>
+        <v>1.447827733542299</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.332680093517663</v>
+        <v>3.683114653808147</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.447827733542299</v>
+        <v>9.277143199855949e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.683114653808147</v>
+        <v>24242046.59175009</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>9.277143199855949e-15</v>
+        <v>3.916297528215417e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>24242046.59175009</v>
+        <v>5.451962041804604</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>3.916297528215417e-06</v>
+        <v>0.0001220350833968722</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>5.451962041804604</v>
+        <v>8.159305818180668</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001220350833968722</v>
+        <v>1.338114050657276</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.159305818180668</v>
+        <v>0.008124396766607044</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.338114050657276</v>
+        <v>2.993202984767018</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.008124396766607044</v>
+        <v>0.9240146149547858</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.993202984767018</v>
+        <v>1.923620211667338</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9240146149547858</v>
+        <v>5</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.923620211667338</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2155823429284831</v>
       </c>
     </row>
@@ -10541,72 +10307,66 @@
         <v>6.570021100018482e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.954372028812371</v>
+        <v>3.319775706619098e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.9519436590313353</v>
+        <v>2.727399478230847e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>3.319775706619098e-07</v>
+        <v>-0.05117513113599411</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.727399478230847e-06</v>
+        <v>0.258317349210925</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.05117513113599411</v>
+        <v>0.06932146142983281</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.258317349210925</v>
+        <v>1.403815291113523</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.06932146142983281</v>
+        <v>1.50021116426702</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.324347280286292</v>
+        <v>3.483420936801362</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.50021116426702</v>
+        <v>1.037129104038803e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.483420936801362</v>
+        <v>21814724.89727599</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.037129104038803e-14</v>
+        <v>4.321653260201711e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>21814724.89727599</v>
+        <v>4.935513028874539</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>4.321653260201711e-06</v>
+        <v>0.0001089270097943534</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>4.935513028874539</v>
+        <v>7.523259777464911</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001089270097943534</v>
+        <v>1.222714645782395</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.523259777464911</v>
+        <v>0.006165207502439444</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.222714645782395</v>
+        <v>3.158114868824441</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.006165207502439444</v>
+        <v>0.9214454254607025</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.158114868824441</v>
+        <v>1.894995871374223</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9214454254607025</v>
+        <v>5</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.894995871374223</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2184843645904411</v>
       </c>
     </row>
@@ -10621,72 +10381,66 @@
         <v>5.953781377036707e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.6539684670282968</v>
+        <v>2.930013838573507e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.1069849821458004</v>
+        <v>2.724221115377391e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.930013838573507e-07</v>
+        <v>-0.0508041910197642</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.724221115377391e-06</v>
+        <v>0.2764057133470319</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.0508041910197642</v>
+        <v>0.07894467439553164</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.2764057133470319</v>
+        <v>1.385302962046756</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.07894467439553164</v>
+        <v>1.457663535345172</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.30671128856497</v>
+        <v>3.487731649033955</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.457663535345172</v>
+        <v>1.034566979017812e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.487731649033955</v>
+        <v>21945376.70060334</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.034566979017812e-14</v>
+        <v>4.225497516895473e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>21945376.70060334</v>
+        <v>4.982470003661256</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>4.225497516895473e-06</v>
+        <v>9.949647940830827e-05</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>4.982470003661256</v>
+        <v>6.221268989658981</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>9.949647940830827e-05</v>
+        <v>1.629019165658412</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>6.221268989658981</v>
+        <v>0.00385093042860625</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.629019165658412</v>
+        <v>3.409893592797666</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.00385093042860625</v>
+        <v>0.9165475909457097</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.409893592797666</v>
+        <v>1.882093407461671</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9165475909457097</v>
+        <v>5</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.882093407461671</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2188236751318239</v>
       </c>
     </row>
@@ -10701,72 +10455,66 @@
         <v>5.477640605514892e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.4077740356232357</v>
+        <v>2.544535769925062e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.5483039122740685</v>
+        <v>2.721337500371789e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.544535769925062e-07</v>
+        <v>-0.05019887491450923</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.721337500371789e-06</v>
+        <v>0.2919471734256928</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05019887491450923</v>
+        <v>0.08771298130575451</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.2919471734256928</v>
+        <v>1.372112283244577</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.08771298130575451</v>
+        <v>1.417313357862179</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.293264284942653</v>
+        <v>3.662169766117667</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.417313357862179</v>
+        <v>9.294391210360093e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.662169766117667</v>
+        <v>24226677.92433517</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.294391210360093e-15</v>
+        <v>3.797298971937534e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>24226677.92433517</v>
+        <v>5.455174908529611</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>3.797298971937534e-06</v>
+        <v>0.0001006417439130337</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>5.455174908529611</v>
+        <v>5.953233366930534</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001006417439130337</v>
+        <v>1.502425767622342</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>5.953233366930534</v>
+        <v>0.003566842790127098</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.502425767622342</v>
+        <v>3.381538926183924</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.003566842790127098</v>
+        <v>0.9156333044549664</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.381538926183924</v>
+        <v>1.924593847401175</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9156333044549664</v>
+        <v>6</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.924593847401175</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2173954670988047</v>
       </c>
     </row>
@@ -10781,72 +10529,66 @@
         <v>5.144998918567519e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.2692168493200814</v>
+        <v>2.177836506589561e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.8787268395384493</v>
+        <v>2.718738497660088e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.177836506589561e-07</v>
+        <v>-0.04754196259836043</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.718738497660088e-06</v>
+        <v>0.3014849233646981</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.04754196259836043</v>
+        <v>0.0931161938398526</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.3014849233646981</v>
+        <v>1.416660432758061</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.0931161938398526</v>
+        <v>1.607874603270725</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.332963242085768</v>
+        <v>3.504662044633685</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.607874603270725</v>
+        <v>9.287719006569669e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.504662044633685</v>
+        <v>23472579.79329016</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.287719006569669e-15</v>
+        <v>4.048035346599178e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>23472579.79329016</v>
+        <v>5.117180259288278</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>4.048035346599178e-06</v>
+        <v>0.0001138950945735898</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>5.117180259288278</v>
+        <v>7.391083738564165</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001138950945735898</v>
+        <v>1.351075643546522</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.391083738564165</v>
+        <v>0.006221874760573416</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.351075643546522</v>
+        <v>3.091801570595831</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.006221874760573416</v>
+        <v>0.9231477116053201</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.091801570595831</v>
+        <v>1.907807452329509</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9231477116053201</v>
+        <v>5</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.907807452329509</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2170793048938905</v>
       </c>
     </row>
@@ -10861,72 +10603,66 @@
         <v>4.944069771203448e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.2441777891774442</v>
+        <v>1.88933845549213e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.9275980123597343</v>
+        <v>2.716474376785629e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.88933845549213e-07</v>
+        <v>-0.04195498333067452</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.716474376785629e-06</v>
+        <v>0.3032463830213714</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.04195498333067452</v>
+        <v>0.09368670867369287</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.3032463830213714</v>
+        <v>1.422826085268006</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.09368670867369287</v>
+        <v>1.548565982147726</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.339929114337739</v>
+        <v>3.454708289724826</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.548565982147726</v>
+        <v>9.558254586234381e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.454708289724826</v>
+        <v>22765467.57312589</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9.558254586234381e-15</v>
+        <v>4.189231761718899e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>22765467.57312589</v>
+        <v>4.953723282640836</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>4.189231761718899e-06</v>
+        <v>0.0001312586322799321</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>4.953723282640836</v>
+        <v>8.401507202520115</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001312586322799321</v>
+        <v>1.316184760328874</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>8.401507202520115</v>
+        <v>0.00926493299198175</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.316184760328874</v>
+        <v>2.914022129637854</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.00926493299198175</v>
+        <v>0.9220017090769681</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.914022129637854</v>
+        <v>1.893669101096961</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9220017090769681</v>
+        <v>5</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.893669101096961</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.1918647199296701</v>
       </c>
     </row>
@@ -11303,7 +11039,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.369014743212893</v>
+        <v>1.370399575743004</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.022973380755078</v>
@@ -11392,7 +11128,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.35727721975624</v>
+        <v>1.360442146918166</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.024916839250709</v>
@@ -11481,7 +11217,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.354692413807996</v>
+        <v>1.357709463491097</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.049401910408483</v>
@@ -11570,7 +11306,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.363075035754442</v>
+        <v>1.367815807837808</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.004387339530646</v>
@@ -11659,7 +11395,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.370537923545405</v>
+        <v>1.376811943258016</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.941812306859998</v>
@@ -11748,7 +11484,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.44028166586621</v>
+        <v>1.447527441902199</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.219768713580525</v>
@@ -11837,7 +11573,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.476070457588729</v>
+        <v>1.481241130258587</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.080940207712171</v>
@@ -11926,7 +11662,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.507552498054175</v>
+        <v>1.516513342298773</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.491633219120487</v>
@@ -12015,7 +11751,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.504660510269776</v>
+        <v>1.511882651817761</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.508785015835882</v>
@@ -12104,7 +11840,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.515374159384083</v>
+        <v>1.524965240346132</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.299573961924001</v>
@@ -12193,7 +11929,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545447339541902</v>
+        <v>1.555128897286987</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.362444868684676</v>
@@ -12282,7 +12018,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.622432721311423</v>
+        <v>1.628704473263578</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.06175538024072</v>
@@ -12371,7 +12107,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662771010040677</v>
+        <v>1.665669937507403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.158380556165378</v>
@@ -12460,7 +12196,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67393659539676</v>
+        <v>1.675366037707424</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.172600213590043</v>
@@ -12549,7 +12285,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688951540599462</v>
+        <v>1.683960751597295</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.224449644935863</v>
@@ -12638,7 +12374,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.68080541342655</v>
+        <v>1.668050120737698</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.281742420172141</v>
@@ -12727,7 +12463,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.673476177381056</v>
+        <v>1.661679298233102</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.678463427086241</v>
@@ -12816,7 +12552,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.699463781096778</v>
+        <v>1.684413195186399</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.916796070237775</v>
@@ -12905,7 +12641,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.685561540069702</v>
+        <v>1.67319876958835</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.965464425475375</v>
@@ -12994,7 +12730,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.653940269789251</v>
+        <v>1.644893726307372</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.908042346009362</v>
@@ -13083,7 +12819,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.663440713748302</v>
+        <v>1.658567906288224</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.116361465557941</v>
@@ -13172,7 +12908,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.663374155094397</v>
+        <v>1.661651052007515</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.736883143999462</v>
@@ -13261,7 +12997,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.655070888325223</v>
+        <v>1.648549206001771</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.220789791733202</v>
@@ -13350,7 +13086,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.659791206882464</v>
+        <v>1.654116989760167</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.165817495879453</v>
@@ -13439,7 +13175,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618958227767013</v>
+        <v>1.618069022178572</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.063257205865815</v>
@@ -13528,7 +13264,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626475707673088</v>
+        <v>1.626959725378123</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.01725213135443</v>
@@ -13617,7 +13353,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629868080986293</v>
+        <v>1.624087472882667</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.154323468551416</v>
@@ -13706,7 +13442,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62204479685449</v>
+        <v>1.611566141387432</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.09723401961644</v>
@@ -13795,7 +13531,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63010252371908</v>
+        <v>1.622563035932156</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.074412959351777</v>
@@ -13884,7 +13620,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622023016352372</v>
+        <v>1.616835851643613</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.104145407340343</v>
@@ -13973,7 +13709,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588969207497281</v>
+        <v>1.59296760127783</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.771944741746726</v>
@@ -14062,7 +13798,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.597361859532094</v>
+        <v>1.602772669570629</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.924374380964249</v>
@@ -14151,7 +13887,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588880452834929</v>
+        <v>1.592196780745399</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.147104554723503</v>
@@ -14240,7 +13976,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.579586214578651</v>
+        <v>1.58110066670045</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.123252334599347</v>
@@ -14329,7 +14065,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605490574698221</v>
+        <v>1.605043233446314</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.940745535144659</v>
@@ -14418,7 +14154,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.609372624329608</v>
+        <v>1.608690591746565</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.945512706975967</v>
@@ -14507,7 +14243,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.615727837816148</v>
+        <v>1.613924566677083</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.690780230907648</v>
@@ -14596,7 +14332,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61937528752535</v>
+        <v>1.619640244097686</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.786300654486306</v>
@@ -14685,7 +14421,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.600258895932965</v>
+        <v>1.595750875796505</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.896170659072633</v>
@@ -14774,7 +14510,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.634068434949789</v>
+        <v>1.623826402264342</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.727823256619202</v>
@@ -14863,7 +14599,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619823783064684</v>
+        <v>1.608037858475904</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.862990003539587</v>
@@ -14952,7 +14688,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62885291155102</v>
+        <v>1.619966816328903</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.851942476904046</v>
@@ -15041,7 +14777,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.642003032792462</v>
+        <v>1.633937654935763</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.890803081216202</v>
@@ -15130,7 +14866,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.607482559024511</v>
+        <v>1.600090097093612</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.753427001913464</v>
@@ -15219,7 +14955,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.622462709910238</v>
+        <v>1.613948268902938</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.614936661488333</v>
@@ -15308,7 +15044,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.677300272017727</v>
+        <v>1.659157410765268</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.741179797969397</v>
@@ -15397,7 +15133,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.677632554670238</v>
+        <v>1.656434259082805</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.109678232547576</v>
@@ -15486,7 +15222,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679176851550216</v>
+        <v>1.663506708805507</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.08967599636667</v>
@@ -15575,7 +15311,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.706031352000104</v>
+        <v>1.691672966573175</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.07776805354352</v>
@@ -15664,7 +15400,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707815476589893</v>
+        <v>1.692936300049463</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.086603934256681</v>
@@ -15753,7 +15489,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.705928092200275</v>
+        <v>1.686019780098184</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.114278876614761</v>
@@ -15842,7 +15578,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.686301745085975</v>
+        <v>1.672489287714339</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.086137765860669</v>
@@ -15931,7 +15667,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.681226980328517</v>
+        <v>1.671894673163579</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.386664355906519</v>
@@ -16020,7 +15756,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.715080853202358</v>
+        <v>1.708070769452131</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.230055895405751</v>
@@ -16109,7 +15845,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.706323729558395</v>
+        <v>1.702092699994987</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.835607044825066</v>
@@ -16198,7 +15934,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.710960077724867</v>
+        <v>1.717602354502716</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.02000585650701</v>
@@ -16287,7 +16023,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.657220584009574</v>
+        <v>1.669535807142077</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.233890772821359</v>
@@ -16376,7 +16112,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.634673439254388</v>
+        <v>1.648353936349325</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.343370212144486</v>
@@ -16465,7 +16201,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657413680372263</v>
+        <v>1.667921193425637</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.122312997846431</v>
@@ -16554,7 +16290,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.655181079841989</v>
+        <v>1.666043272380574</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.019023269539403</v>
@@ -16643,7 +16379,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.640504840793139</v>
+        <v>1.65281806935612</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.972062100720874</v>
@@ -16732,7 +16468,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.650984015789378</v>
+        <v>1.661979621446391</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.921522918882648</v>
@@ -16821,7 +16557,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.629400592064711</v>
+        <v>1.64486544503266</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.205174826909899</v>
@@ -16910,7 +16646,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.625009613603151</v>
+        <v>1.640230403502501</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.921802200165856</v>
@@ -16999,7 +16735,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.622569900401141</v>
+        <v>1.639190122521386</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.171193949893631</v>
@@ -17088,7 +16824,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.632075443351367</v>
+        <v>1.646669481903653</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.858460447470349</v>
@@ -17177,7 +16913,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.65005736205196</v>
+        <v>1.663368329643082</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.868285813348293</v>
@@ -17266,7 +17002,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.665178957215999</v>
+        <v>1.674016707574212</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.164588528898687</v>
@@ -17355,7 +17091,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.66583584993668</v>
+        <v>1.670146588422075</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.836370509020283</v>
@@ -17444,7 +17180,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.650885689296662</v>
+        <v>1.655965447181397</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.092390156527737</v>
@@ -17533,7 +17269,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.637265828588981</v>
+        <v>1.639862735342872</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.961686654855479</v>
@@ -17622,7 +17358,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.672462383211408</v>
+        <v>1.669421532311387</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.499111829217701</v>
@@ -17711,7 +17447,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.687357971223997</v>
+        <v>1.686502986557001</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.82877973206591</v>
@@ -17800,7 +17536,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.673653705024956</v>
+        <v>1.676495364058934</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.845201993804888</v>
@@ -17889,7 +17625,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.670703139631116</v>
+        <v>1.667350647015761</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.848338682647584</v>
@@ -17978,7 +17714,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.670337423338045</v>
+        <v>1.669460829483751</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.907735576738169</v>
@@ -18067,7 +17803,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.682448225928531</v>
+        <v>1.680523426311078</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.870433699361944</v>
@@ -18156,7 +17892,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.686521646919242</v>
+        <v>1.680452109024518</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.747786380976987</v>
@@ -18245,7 +17981,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.671060061569718</v>
+        <v>1.669923169849016</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.059023791211401</v>
@@ -18334,7 +18070,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.672962259630276</v>
+        <v>1.668058652636655</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.122528501499547</v>
@@ -18423,7 +18159,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.654449609992899</v>
+        <v>1.656896867697949</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.873839955407437</v>
@@ -18512,7 +18248,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.625199619076687</v>
+        <v>1.625870488319786</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.24887439558325</v>
@@ -18601,7 +18337,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.622991877493639</v>
+        <v>1.625029507454664</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.094895385952009</v>
@@ -18690,7 +18426,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.627829903274724</v>
+        <v>1.629576033202568</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.687606156701763</v>
@@ -18779,7 +18515,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.649070777040694</v>
+        <v>1.648162229781419</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.805056836084982</v>
@@ -18868,7 +18604,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.659250385455662</v>
+        <v>1.653650698825005</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.932538291130147</v>
@@ -18957,7 +18693,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.679720518318126</v>
+        <v>1.668590997269328</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.089708422891877</v>
@@ -19243,7 +18979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.382705045654085</v>
+        <v>1.393701669205513</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.524139848456402</v>
@@ -19332,7 +19068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.382877492982856</v>
+        <v>1.393969383009306</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.476968604205159</v>
@@ -19421,7 +19157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.36800620051839</v>
+        <v>1.369869756208598</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.468689718074186</v>
@@ -19510,7 +19246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373512616567839</v>
+        <v>1.379361420547607</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.436452179485167</v>
@@ -19599,7 +19335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.376222388956132</v>
+        <v>1.377237306903071</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.521863365089923</v>
@@ -19688,7 +19424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.37172069688677</v>
+        <v>1.374374325423944</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.282108774513186</v>
@@ -19777,7 +19513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.387053830059883</v>
+        <v>1.39286656685992</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.528238211794621</v>
@@ -19866,7 +19602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381935336342703</v>
+        <v>1.392161587936182</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.467457085480433</v>
@@ -19955,7 +19691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.382303699243824</v>
+        <v>1.393746143333718</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.512879515749398</v>
@@ -20044,7 +19780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.369972188879242</v>
+        <v>1.37998251535582</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.334506042798689</v>
@@ -20133,7 +19869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.390714364615379</v>
+        <v>1.401276765444632</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.330955565427185</v>
@@ -20222,7 +19958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.404317577590935</v>
+        <v>1.413215164475841</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.509649436119334</v>
@@ -20311,7 +20047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.418557058703983</v>
+        <v>1.427339895949875</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.560027295711139</v>
@@ -20400,7 +20136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.402491525859752</v>
+        <v>1.410821967826571</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.755041146574947</v>
@@ -20489,7 +20225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410162153568104</v>
+        <v>1.416000688141182</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.785667734179175</v>
@@ -20578,7 +20314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.396436672289553</v>
+        <v>1.398842923676943</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.874680776880951</v>
@@ -20667,7 +20403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.385930248356937</v>
+        <v>1.385428361448206</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.662670656285774</v>
@@ -20756,7 +20492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406621072951997</v>
+        <v>1.414932515953304</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.510014527482423</v>
@@ -20845,7 +20581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.400844322095794</v>
+        <v>1.409774275605272</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.782310740226519</v>
@@ -20934,7 +20670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.40475458274464</v>
+        <v>1.411497698716863</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.848178999605795</v>
@@ -21023,7 +20759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.407111807834783</v>
+        <v>1.411683495403679</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.670630710605284</v>
@@ -21112,7 +20848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.408487131498643</v>
+        <v>1.410655863019434</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.593487774777564</v>
@@ -21201,7 +20937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.391158452127077</v>
+        <v>1.396304074783131</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.648671629593703</v>
@@ -21290,7 +21026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.37870056366168</v>
+        <v>1.378449700409563</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.581276286491379</v>
@@ -21379,7 +21115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.389404222602981</v>
+        <v>1.392862502332364</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.666825795247321</v>
@@ -21468,7 +21204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.378563054318106</v>
+        <v>1.382461800444046</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.717275288406546</v>
@@ -21557,7 +21293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.382299844847162</v>
+        <v>1.384524574444341</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.487306827238601</v>
@@ -21646,7 +21382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.378996716408273</v>
+        <v>1.380085140029216</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.542624763484651</v>
@@ -21735,7 +21471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.397259134438277</v>
+        <v>1.398523463858831</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.508681360071709</v>
@@ -21824,7 +21560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.38523626578014</v>
+        <v>1.381586240922258</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.673552987199725</v>
@@ -21913,7 +21649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.38556158078987</v>
+        <v>1.388515981948136</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.694517567446919</v>
@@ -22002,7 +21738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.398540230934833</v>
+        <v>1.402055512530653</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.698631498719181</v>
@@ -22091,7 +21827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.390400716967035</v>
+        <v>1.390244935697934</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.635155141843675</v>
@@ -22180,7 +21916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.379059331494281</v>
+        <v>1.377602190217559</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.713382710935767</v>
@@ -22269,7 +22005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.376191390998732</v>
+        <v>1.3787822923241</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.682613524049231</v>
@@ -22358,7 +22094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.396321979652691</v>
+        <v>1.396928481505552</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.728443546084459</v>
@@ -22447,7 +22183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.395936216813854</v>
+        <v>1.398790569540862</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.362070079712816</v>
@@ -22536,7 +22272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.40299973229991</v>
+        <v>1.403542834056849</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.683603454915664</v>
@@ -22625,7 +22361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.406031855194215</v>
+        <v>1.408931661372241</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.642207242480027</v>
@@ -22714,7 +22450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.404594224435882</v>
+        <v>1.408569972023249</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.543275010934164</v>
@@ -22803,7 +22539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.414230274018286</v>
+        <v>1.414886369630499</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.704862485161237</v>
@@ -22892,7 +22628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.409093852431698</v>
+        <v>1.403835115648696</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.806147339227307</v>
@@ -22981,7 +22717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.410575485246842</v>
+        <v>1.407286144282186</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.958640526417275</v>
@@ -23070,7 +22806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.399577407076136</v>
+        <v>1.390105735701701</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.713555460432129</v>
@@ -23159,7 +22895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.397442026476129</v>
+        <v>1.390023182438772</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.672677377146714</v>
@@ -23248,7 +22984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.404177232145942</v>
+        <v>1.398238024118846</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.811544931386569</v>
@@ -23337,7 +23073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.408529393298711</v>
+        <v>1.400492316866841</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.634840323113291</v>
@@ -23426,7 +23162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.39751815503549</v>
+        <v>1.391843996799006</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.800602501238769</v>
@@ -23515,7 +23251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.416125102357605</v>
+        <v>1.40377324186441</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.517460185634092</v>
@@ -23604,7 +23340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.42715087458265</v>
+        <v>1.411973542685526</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.63825171657241</v>
@@ -23693,7 +23429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.429948640703282</v>
+        <v>1.4128345628717</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.610115562227679</v>
@@ -23782,7 +23518,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.434821645163564</v>
+        <v>1.414446309867029</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.627868263152341</v>
@@ -23871,7 +23607,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.412372407041967</v>
+        <v>1.39432779142749</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.827680074740107</v>
@@ -23960,7 +23696,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.414476466582843</v>
+        <v>1.396054688694786</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.473998798327018</v>
@@ -24049,7 +23785,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.427480003395426</v>
+        <v>1.409782427645949</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.711067709066502</v>
@@ -24138,7 +23874,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.435496464703068</v>
+        <v>1.420612700375736</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.799695858784553</v>
@@ -24227,7 +23963,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.43709131684402</v>
+        <v>1.42346660723885</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.723970821557345</v>
@@ -24316,7 +24052,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.42497018464261</v>
+        <v>1.409613213245554</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.753159048135669</v>
@@ -24405,7 +24141,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.430250317653953</v>
+        <v>1.418509454786641</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.527604620801008</v>
@@ -24494,7 +24230,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.427985413757597</v>
+        <v>1.417384332899785</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.682845305826731</v>
@@ -24583,7 +24319,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.420447760838283</v>
+        <v>1.410309037362144</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.771546788297838</v>
@@ -24672,7 +24408,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.421343942331596</v>
+        <v>1.41369803865749</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.571270086086826</v>
@@ -24761,7 +24497,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.427333473388402</v>
+        <v>1.419236456189517</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.833568036272192</v>
@@ -24850,7 +24586,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.404284822532901</v>
+        <v>1.404422101712945</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.802434432308625</v>
@@ -24939,7 +24675,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.393852191418081</v>
+        <v>1.392277382831452</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.701593458231852</v>
@@ -25028,7 +24764,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.387338831695103</v>
+        <v>1.389955564236969</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.902465518190205</v>
@@ -25117,7 +24853,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.391560210361575</v>
+        <v>1.396002877753015</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.313587141030873</v>
@@ -25206,7 +24942,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.398414198732</v>
+        <v>1.405289773470916</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.7570053431008</v>
@@ -25295,7 +25031,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.388892117556314</v>
+        <v>1.395113905621185</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.92595997704783</v>
@@ -25384,7 +25120,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.384449871973212</v>
+        <v>1.392691704164757</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.912654501727019</v>
@@ -25473,7 +25209,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.373476794491577</v>
+        <v>1.379904978200334</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.851882493236315</v>
@@ -25562,7 +25298,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.382370006482174</v>
+        <v>1.393421514964325</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.738523979085841</v>
@@ -25651,7 +25387,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.389711937749001</v>
+        <v>1.402426611906804</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.7918165956952</v>
@@ -25740,7 +25476,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.402572911287473</v>
+        <v>1.414960216713579</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.652221197005186</v>
@@ -25829,7 +25565,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.40391589475296</v>
+        <v>1.415794464571139</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.843046289756118</v>
@@ -25918,7 +25654,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.395755687844517</v>
+        <v>1.408977295245036</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.016384686295754</v>
@@ -26007,7 +25743,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.372598348945798</v>
+        <v>1.381662331485256</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.689427496832287</v>
@@ -26096,7 +25832,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.36731100339896</v>
+        <v>1.37750598244585</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.379535824445566</v>
@@ -26185,7 +25921,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.381712847539211</v>
+        <v>1.394538937931957</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.607791861981778</v>
@@ -26274,7 +26010,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.388651172554842</v>
+        <v>1.405568704915118</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.644856356330186</v>
@@ -26363,7 +26099,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.394339545356311</v>
+        <v>1.403154519307766</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.554089242180349</v>
@@ -26452,7 +26188,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.393519419961383</v>
+        <v>1.4018819446811</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.845611373666283</v>
@@ -26541,7 +26277,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.412893041998093</v>
+        <v>1.419681702199236</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.626358698715328</v>
@@ -26630,7 +26366,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.428682285815916</v>
+        <v>1.436604747382953</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.683550304717448</v>
@@ -26719,7 +26455,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.423001300299828</v>
+        <v>1.432701161755227</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.81567493323097</v>
@@ -26808,7 +26544,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.428350103984313</v>
+        <v>1.433139014505741</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.719727685010518</v>
@@ -26897,7 +26633,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.432780938802802</v>
+        <v>1.434473535439151</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.70958004037263</v>
@@ -27183,7 +26919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.586598611313548</v>
+        <v>1.569125603083111</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.047172318005051</v>
@@ -27272,7 +27008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.579384143863405</v>
+        <v>1.562571556923484</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.954434594754211</v>
@@ -27361,7 +27097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.58099731865743</v>
+        <v>1.555964023009594</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.983526848168181</v>
@@ -27450,7 +27186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587679509731488</v>
+        <v>1.562110031031672</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.045133644421175</v>
@@ -27539,7 +27275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.597898063820856</v>
+        <v>1.571945627281276</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.940500059077861</v>
@@ -27628,7 +27364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.61612534883652</v>
+        <v>1.580809476368397</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.935245121722927</v>
@@ -27717,7 +27453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.629555173393817</v>
+        <v>1.590124679496232</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.138103575234773</v>
@@ -27806,7 +27542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.635799500192185</v>
+        <v>1.595727606547881</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.067949383918697</v>
@@ -27895,7 +27631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.642958113433078</v>
+        <v>1.601411501610138</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.089159188198884</v>
@@ -27984,7 +27720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641170861121049</v>
+        <v>1.59362368031451</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.883689596675829</v>
@@ -28073,7 +27809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.65863603456504</v>
+        <v>1.603504068349613</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.672023837623957</v>
@@ -28162,7 +27898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.653099321390202</v>
+        <v>1.597357173055473</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.303203112404262</v>
@@ -28251,7 +27987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.675188053669404</v>
+        <v>1.619975488388759</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.26790507732693</v>
@@ -28340,7 +28076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.681090655942742</v>
+        <v>1.622884038405684</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.345116295912073</v>
@@ -28429,7 +28165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681778632212978</v>
+        <v>1.621941618266092</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.301730816101727</v>
@@ -28518,7 +28254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678597101354297</v>
+        <v>1.617387101034212</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.760670206016349</v>
@@ -28607,7 +28343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663103203853459</v>
+        <v>1.603865449650397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.714589367303066</v>
@@ -28696,7 +28432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.667842141935685</v>
+        <v>1.61452109049573</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.722924324818736</v>
@@ -28785,7 +28521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.6788098318761</v>
+        <v>1.625140094594337</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.201273869880452</v>
@@ -28874,7 +28610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682441424978053</v>
+        <v>1.628561875433766</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.231008966693224</v>
@@ -28963,7 +28699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.677918379656031</v>
+        <v>1.62557265859261</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.206544241528687</v>
@@ -29052,7 +28788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691914449007185</v>
+        <v>1.629019922536489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.969731525369566</v>
@@ -29141,7 +28877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.692906226445926</v>
+        <v>1.629452141250735</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.208345838961982</v>
@@ -29230,7 +28966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.695034069238324</v>
+        <v>1.631234734391732</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.197654744659509</v>
@@ -29319,7 +29055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680326509719787</v>
+        <v>1.627855167120645</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.458404921854124</v>
@@ -29408,7 +29144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.680375206296388</v>
+        <v>1.630740786659426</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.632894580952126</v>
@@ -29497,7 +29233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.689191766208638</v>
+        <v>1.640538772589748</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.562979136908157</v>
@@ -29586,7 +29322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.68135634644899</v>
+        <v>1.626385618515485</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.630033227145006</v>
@@ -29675,7 +29411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679835417552092</v>
+        <v>1.627993150549558</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.192470938549095</v>
@@ -29764,7 +29500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.676632769720322</v>
+        <v>1.622738944760704</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.170894230931199</v>
@@ -29853,7 +29589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.669354086348066</v>
+        <v>1.62081771657738</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.421365113124752</v>
@@ -29942,7 +29678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.682930932442605</v>
+        <v>1.6335837088891</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.664725091763327</v>
@@ -30031,7 +29767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.677172144574496</v>
+        <v>1.624980776259362</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.678527401350312</v>
@@ -30120,7 +29856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.662867053551356</v>
+        <v>1.613573470340894</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.845473112486492</v>
@@ -30209,7 +29945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657213234427834</v>
+        <v>1.606973543823247</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.013047084568333</v>
@@ -30298,7 +30034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.662215969343561</v>
+        <v>1.607799430124072</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.839170006855304</v>
@@ -30387,7 +30123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.651629007543723</v>
+        <v>1.610926460236119</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.839054568956276</v>
@@ -30476,7 +30212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.649517822377019</v>
+        <v>1.608619363993987</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.525466917663124</v>
@@ -30565,7 +30301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.64373299686004</v>
+        <v>1.603488345983125</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.645222575764238</v>
@@ -30654,7 +30390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.648801011866644</v>
+        <v>1.59474174603333</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.171181578744985</v>
@@ -30743,7 +30479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.631455920443175</v>
+        <v>1.566573978409004</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.458017002158526</v>
@@ -30832,7 +30568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636133276318519</v>
+        <v>1.571388071379034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.91495913439998</v>
@@ -30921,7 +30657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636742074371946</v>
+        <v>1.578927402995095</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.16591886075625</v>
@@ -31010,7 +30746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622654961068519</v>
+        <v>1.564863934363453</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.228381432188157</v>
@@ -31099,7 +30835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623090473834748</v>
+        <v>1.568750111290557</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.304322058634112</v>
@@ -31188,7 +30924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.625688888454277</v>
+        <v>1.570177292894396</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.662073042421296</v>
@@ -31277,7 +31013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.624837068348583</v>
+        <v>1.568447233012048</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.429859333791067</v>
@@ -31366,7 +31102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.625802162898461</v>
+        <v>1.568176882650145</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.588190599290136</v>
@@ -31455,7 +31191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.635154545279638</v>
+        <v>1.572485279436145</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.677049819444261</v>
@@ -31544,7 +31280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638901735496513</v>
+        <v>1.572292168168048</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.379368051742082</v>
@@ -31633,7 +31369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.646779135981093</v>
+        <v>1.580951793772496</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.428273713268769</v>
@@ -31722,7 +31458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.641606491431859</v>
+        <v>1.571730035745078</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.599545232630652</v>
@@ -31811,7 +31547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.638096664934413</v>
+        <v>1.564495781733631</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.289343282233248</v>
@@ -31900,7 +31636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.640973755883187</v>
+        <v>1.566493756220287</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.577768861373635</v>
@@ -31989,7 +31725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639430033338265</v>
+        <v>1.577668122518408</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.28099610250234</v>
@@ -32078,7 +31814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.652402844617039</v>
+        <v>1.605259512576752</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.488367021598971</v>
@@ -32167,7 +31903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.638238866522744</v>
+        <v>1.593189839816788</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.485277967891068</v>
@@ -32256,7 +31992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.634672378864823</v>
+        <v>1.588962496563064</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.369059393239531</v>
@@ -32345,7 +32081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.655142091877624</v>
+        <v>1.607847121476193</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.365033933190359</v>
@@ -32434,7 +32170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65203436298376</v>
+        <v>1.605541049912168</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.543696874148218</v>
@@ -32523,7 +32259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.656013882252839</v>
+        <v>1.61265236348229</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.56292597441333</v>
@@ -32612,7 +32348,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.662889479026778</v>
+        <v>1.619481144537561</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.59264738573602</v>
@@ -32701,7 +32437,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.657946109777666</v>
+        <v>1.622574462264742</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.9492970874066</v>
@@ -32790,7 +32526,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.662699290824882</v>
+        <v>1.627586418166595</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.60915250513565</v>
@@ -32879,7 +32615,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.66652663500673</v>
+        <v>1.627185856582114</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.617594197974355</v>
@@ -32968,7 +32704,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.662286839036214</v>
+        <v>1.623032964217918</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.631242385854546</v>
@@ -33057,7 +32793,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.658846395906089</v>
+        <v>1.623176418099754</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.74057309654382</v>
@@ -33146,7 +32882,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.668151171073702</v>
+        <v>1.638201242228157</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.608877658061196</v>
@@ -33235,7 +32971,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.676346235826722</v>
+        <v>1.65291752839678</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.63746291697655</v>
@@ -33324,7 +33060,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.674302689708166</v>
+        <v>1.644770834225529</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.453909994335886</v>
@@ -33413,7 +33149,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.66378872975341</v>
+        <v>1.62538195987482</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.566013288872377</v>
@@ -33502,7 +33238,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.673404017584317</v>
+        <v>1.628533517400292</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.40867955703959</v>
@@ -33591,7 +33327,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.672969123417018</v>
+        <v>1.62684836093941</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.228721168577377</v>
@@ -33680,7 +33416,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.662221936966447</v>
+        <v>1.618398333117379</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.4421508693646</v>
@@ -33769,7 +33505,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.673955279213931</v>
+        <v>1.625353500248632</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.292124709557094</v>
@@ -33858,7 +33594,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.673083275389464</v>
+        <v>1.623308479297564</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.250679130735393</v>
@@ -33947,7 +33683,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.671109118204287</v>
+        <v>1.62383520940498</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.58083312035591</v>
@@ -34036,7 +33772,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.674391236504929</v>
+        <v>1.618625954588625</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.525799317584174</v>
@@ -34125,7 +33861,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.672193350784871</v>
+        <v>1.621960498822991</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.481748201953821</v>
@@ -34214,7 +33950,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.671340349848875</v>
+        <v>1.628394371465455</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.63945235437877</v>
@@ -34303,7 +34039,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.656638216288824</v>
+        <v>1.615649988887617</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.382015602509865</v>
@@ -34392,7 +34128,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.654610206684548</v>
+        <v>1.611677601799425</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.314859320435756</v>
@@ -34481,7 +34217,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.658636247994846</v>
+        <v>1.610240509534874</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.425368069182483</v>
@@ -34570,7 +34306,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.658400233593489</v>
+        <v>1.602893199870199</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.829487639541532</v>
@@ -34659,7 +34395,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.656751566078731</v>
+        <v>1.60691174167122</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.477047873310796</v>
@@ -34748,7 +34484,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.65982074073097</v>
+        <v>1.611064396925263</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.214646918889471</v>
@@ -34837,7 +34573,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.662280185570329</v>
+        <v>1.615950467488362</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.408382838064679</v>
@@ -35123,7 +34859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.533009429871901</v>
+        <v>1.52643141672424</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.036079670400735</v>
@@ -35212,7 +34948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.521595307828849</v>
+        <v>1.510917549964744</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.879920533389012</v>
@@ -35301,7 +35037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5234766967584</v>
+        <v>1.508042368531166</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.967783074840634</v>
@@ -35390,7 +35126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.537329021887847</v>
+        <v>1.514856323537106</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.80964406872404</v>
@@ -35479,7 +35215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543708527372312</v>
+        <v>1.511127264450605</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.690839550304498</v>
@@ -35568,7 +35304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.563689228802053</v>
+        <v>1.524219282421394</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.898328818364662</v>
@@ -35657,7 +35393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.565103512253902</v>
+        <v>1.526729698550264</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.817460452325107</v>
@@ -35746,7 +35482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.580000167929052</v>
+        <v>1.536368917972884</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.918250391286852</v>
@@ -35835,7 +35571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.573897229244074</v>
+        <v>1.529829705862064</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.895409661734824</v>
@@ -35924,7 +35660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.565333593822265</v>
+        <v>1.516139199740706</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.847145598663862</v>
@@ -36013,7 +35749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598619048126386</v>
+        <v>1.544449718902401</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.910188138633156</v>
@@ -36102,7 +35838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615268499886289</v>
+        <v>1.564954326647981</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.781882874277635</v>
@@ -36191,7 +35927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.631038259720932</v>
+        <v>1.571468480435903</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.98498397086406</v>
@@ -36280,7 +36016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636799368912419</v>
+        <v>1.570441919546611</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.186923222280541</v>
@@ -36369,7 +36105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.650259724112744</v>
+        <v>1.578806123048222</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.002909576580428</v>
@@ -36458,7 +36194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651061674117988</v>
+        <v>1.573286892808493</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.236449192807273</v>
@@ -36547,7 +36283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.650353995366062</v>
+        <v>1.570867702348136</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.026865118095225</v>
@@ -36636,7 +36372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.661085484804513</v>
+        <v>1.585163400435762</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.312269575001093</v>
@@ -36725,7 +36461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655314009965415</v>
+        <v>1.582554683008457</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.316701250837236</v>
@@ -36814,7 +36550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648589175000091</v>
+        <v>1.576814752666257</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.992336178427419</v>
@@ -36903,7 +36639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642950961728382</v>
+        <v>1.577549079351227</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.218360428393927</v>
@@ -36992,7 +36728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647127658800668</v>
+        <v>1.575466162214167</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.079522141726879</v>
@@ -37081,7 +36817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.637033545838922</v>
+        <v>1.561969554169835</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.164329658137048</v>
@@ -37170,7 +36906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650104434546785</v>
+        <v>1.572487923150997</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.421804274318916</v>
@@ -37259,7 +36995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633221721089275</v>
+        <v>1.568382177290731</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.10256436811367</v>
@@ -37348,7 +37084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631852294845739</v>
+        <v>1.567032201979492</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.873853715233424</v>
@@ -37437,7 +37173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.642267746295353</v>
+        <v>1.577428638501316</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.265198392372306</v>
@@ -37526,7 +37262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.63421091368385</v>
+        <v>1.57794788688366</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.33049189167339</v>
@@ -37615,7 +37351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631978795437903</v>
+        <v>1.580190875225482</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.187412872294701</v>
@@ -37704,7 +37440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.630247836777236</v>
+        <v>1.575412743653702</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.32819682728165</v>
@@ -37793,7 +37529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602723340558395</v>
+        <v>1.554836832398365</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.095704641053483</v>
@@ -37882,7 +37618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614891112881475</v>
+        <v>1.56901457423717</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.151729427798927</v>
@@ -37971,7 +37707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.612183008807572</v>
+        <v>1.56383254398258</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.972631326161308</v>
@@ -38060,7 +37796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606915452064112</v>
+        <v>1.558362734716695</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.887402130960032</v>
@@ -38149,7 +37885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61287785469333</v>
+        <v>1.562787083132276</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.143606279589599</v>
@@ -38238,7 +37974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.625730129886233</v>
+        <v>1.578448519455816</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.0406622788055</v>
@@ -38327,7 +38063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.636525017999149</v>
+        <v>1.585588313766022</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.901754483130032</v>
@@ -38416,7 +38152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.638435827324433</v>
+        <v>1.589978920304061</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.982509403972881</v>
@@ -38505,7 +38241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623866808187318</v>
+        <v>1.577151734260589</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.181755882982446</v>
@@ -38594,7 +38330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.640308459627399</v>
+        <v>1.584664684693078</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.282204123166823</v>
@@ -38683,7 +38419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.628746316846385</v>
+        <v>1.567959507192412</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.00374729517251</v>
@@ -38772,7 +38508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62305071641704</v>
+        <v>1.558111772106755</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.787704154902503</v>
@@ -38861,7 +38597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.637162968058149</v>
+        <v>1.571230827476221</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.066123755961713</v>
@@ -38950,7 +38686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.631294197588279</v>
+        <v>1.569801452021575</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.074310693764645</v>
@@ -39039,7 +38775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.630939101114998</v>
+        <v>1.573121905820708</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.087350158908047</v>
@@ -39128,7 +38864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.667014985813949</v>
+        <v>1.60118958790644</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.146132152267429</v>
@@ -39217,7 +38953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.662994766943354</v>
+        <v>1.602172176604062</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.420755339331721</v>
@@ -39306,7 +39042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.661578273372574</v>
+        <v>1.603174556796787</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.19496096736502</v>
@@ -39395,7 +39131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.670600906668012</v>
+        <v>1.612865591067636</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.335140149159009</v>
@@ -39484,7 +39220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.682882297877839</v>
+        <v>1.623779394559076</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.291872333041707</v>
@@ -39573,7 +39309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.665230625706055</v>
+        <v>1.604588026665561</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.339228625724922</v>
@@ -39662,7 +39398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.651666782437587</v>
+        <v>1.595627518255474</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.254612895936975</v>
@@ -39751,7 +39487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.643837572868948</v>
+        <v>1.592324762353742</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.421108966567323</v>
@@ -39840,7 +39576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.661059903023817</v>
+        <v>1.603383063623956</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.178484317293796</v>
@@ -39929,7 +39665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.658924316824137</v>
+        <v>1.608560355610252</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.310094418545325</v>
@@ -40018,7 +39754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.671070066075963</v>
+        <v>1.627733165316492</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.438836958556241</v>
@@ -40107,7 +39843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.65466071599071</v>
+        <v>1.609987592051107</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.219902563163955</v>
@@ -40196,7 +39932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.647411549374514</v>
+        <v>1.606690898055271</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.637642878144813</v>
@@ -40285,7 +40021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.665578385078326</v>
+        <v>1.620490956803564</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.201733560689434</v>
@@ -40374,7 +40110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.668406106548303</v>
+        <v>1.626938352382949</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.493268562049987</v>
@@ -40463,7 +40199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.657034624866912</v>
+        <v>1.618566265757114</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.214798912241829</v>
@@ -40552,7 +40288,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.655333872498667</v>
+        <v>1.606391819631281</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.087689857796335</v>
@@ -40641,7 +40377,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.653610830061871</v>
+        <v>1.605247445349773</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.104157817241478</v>
@@ -40730,7 +40466,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.647446705338241</v>
+        <v>1.593836188573163</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.17482898181805</v>
@@ -40819,7 +40555,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.643125084304565</v>
+        <v>1.589580808475964</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.362335548068588</v>
@@ -40908,7 +40644,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.658494962711343</v>
+        <v>1.599655920743795</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.152090500349247</v>
@@ -40997,7 +40733,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.659085077106696</v>
+        <v>1.600870922017725</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.391673682070613</v>
@@ -41086,7 +40822,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.662666656501898</v>
+        <v>1.606313925034291</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.48031806983008</v>
@@ -41175,7 +40911,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.663589984336437</v>
+        <v>1.605626561212303</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.385456649569558</v>
@@ -41264,7 +41000,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.651546030302761</v>
+        <v>1.597932217394189</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.690836282055711</v>
@@ -41353,7 +41089,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.639236693895671</v>
+        <v>1.586311652541031</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.530104434837548</v>
@@ -41442,7 +41178,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.632786751840331</v>
+        <v>1.581541151505932</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.32264518456708</v>
@@ -41531,7 +41267,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.630177462095957</v>
+        <v>1.570649590548948</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.51899199742873</v>
@@ -41620,7 +41356,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.616420868158151</v>
+        <v>1.558647100732964</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.461185150199601</v>
@@ -41709,7 +41445,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.619890649702932</v>
+        <v>1.557414198291758</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.925897859029383</v>
@@ -41798,7 +41534,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.614215784701106</v>
+        <v>1.549991968646868</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.047483986625422</v>
@@ -41887,7 +41623,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.612253821586121</v>
+        <v>1.555111501259999</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.211362438885416</v>
@@ -41976,7 +41712,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.610220658352921</v>
+        <v>1.547910868266116</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.44905421195143</v>
@@ -42065,7 +41801,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.607422783659446</v>
+        <v>1.556743217861826</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.390017962644839</v>
@@ -42154,7 +41890,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.605763591971702</v>
+        <v>1.553165961813315</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.616000935379484</v>
@@ -42243,7 +41979,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.587995840982383</v>
+        <v>1.543304306919814</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.250633532008007</v>
@@ -42332,7 +42068,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.564075381864658</v>
+        <v>1.523942419234149</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.333215236095876</v>
@@ -42421,7 +42157,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.569390081138677</v>
+        <v>1.527111254693052</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.02802564871155</v>
@@ -42510,7 +42246,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.568984719151843</v>
+        <v>1.530265146645624</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.855968435846327</v>
@@ -42599,7 +42335,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.574214331802182</v>
+        <v>1.530274374901769</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.192960015003834</v>
@@ -42688,7 +42424,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.575820563293689</v>
+        <v>1.520633949495129</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.740015054237095</v>
@@ -42777,7 +42513,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.591583782910847</v>
+        <v>1.540695424022146</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.12617352233884</v>
@@ -43063,7 +42799,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.208978654944644</v>
+        <v>1.218895537029772</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.629683799130769</v>
@@ -43152,7 +42888,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.214356591030502</v>
+        <v>1.2254151964958</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.605575222419795</v>
@@ -43241,7 +42977,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.223590705847484</v>
+        <v>1.235331139198244</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.633366140285718</v>
@@ -43330,7 +43066,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.226296945289924</v>
+        <v>1.239952293221671</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.63360706331487</v>
@@ -43419,7 +43155,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.235594963545521</v>
+        <v>1.249011350819784</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.588640415845096</v>
@@ -43508,7 +43244,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.239262807518978</v>
+        <v>1.253843662596715</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.610854116977121</v>
@@ -43597,7 +43333,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.252076981000598</v>
+        <v>1.264664424290348</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.6252631034382</v>
@@ -43686,7 +43422,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.251757728722463</v>
+        <v>1.265474109072203</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.623105834335358</v>
@@ -43775,7 +43511,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.245280549431529</v>
+        <v>1.259014824428173</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.623642331730472</v>
@@ -43864,7 +43600,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.249508181751423</v>
+        <v>1.262463557015709</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.612620770842207</v>
@@ -43953,7 +43689,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.266823175255214</v>
+        <v>1.276988860256933</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.564539625948484</v>
@@ -44042,7 +43778,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.488743886605627</v>
+        <v>1.493602875578916</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.16362374024288</v>
@@ -44131,7 +43867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.515765460454539</v>
+        <v>1.524505251990843</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.532302517515051</v>
@@ -44220,7 +43956,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.508143944892937</v>
+        <v>1.522016935052247</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.72601456406918</v>
@@ -44309,7 +44045,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.503992222262336</v>
+        <v>1.516637752701066</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.729691616782732</v>
@@ -44398,7 +44134,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.511758568688028</v>
+        <v>1.522952963460757</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.724605071684283</v>
@@ -44487,7 +44223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.541154002952851</v>
+        <v>1.542602545597665</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.788989330787506</v>
@@ -44576,7 +44312,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542223882852007</v>
+        <v>1.54307596459626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.875655636934202</v>
@@ -44665,7 +44401,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550998024745968</v>
+        <v>1.550023434817746</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.179760594955473</v>
@@ -44754,7 +44490,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.559734532868255</v>
+        <v>1.560876351112175</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.74247240461291</v>
@@ -44843,7 +44579,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569631965196495</v>
+        <v>1.567128190150118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.08014603859899</v>
@@ -44932,7 +44668,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561287366851406</v>
+        <v>1.560717747050175</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.815041676157541</v>
@@ -45021,7 +44757,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.54231036852463</v>
+        <v>1.537119414085254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.677673813273536</v>
@@ -45110,7 +44846,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55896469365841</v>
+        <v>1.551675874162525</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.762064349525407</v>
@@ -45199,7 +44935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567202633094643</v>
+        <v>1.554623921787825</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.70758700014902</v>
@@ -45288,7 +45024,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581132214969003</v>
+        <v>1.56718724587076</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.642733383728046</v>
@@ -45377,7 +45113,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.578872417406188</v>
+        <v>1.565678199978911</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.682540729924449</v>
@@ -45466,7 +45202,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592336869657871</v>
+        <v>1.567334903972796</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.798784275908209</v>
@@ -45555,7 +45291,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57467850156452</v>
+        <v>1.548910593867517</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.540186165025361</v>
@@ -45644,7 +45380,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565434697220275</v>
+        <v>1.536059237453352</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.786060852098439</v>
@@ -45733,7 +45469,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560946277458567</v>
+        <v>1.531614077346101</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.680117873168629</v>
@@ -45822,7 +45558,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.562182324741832</v>
+        <v>1.536629605673334</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.739426361541668</v>
@@ -45911,7 +45647,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.559865456331392</v>
+        <v>1.533015186600208</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.731729877054544</v>
@@ -46000,7 +45736,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.545842746076403</v>
+        <v>1.518827712277041</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.639119248765244</v>
@@ -46089,7 +45825,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541600607930416</v>
+        <v>1.513528957733804</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.517791732281947</v>
@@ -46178,7 +45914,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534030295761535</v>
+        <v>1.500176666953893</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.571500050145398</v>
@@ -46267,7 +46003,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.555426853564031</v>
+        <v>1.518042378426575</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.682716115061582</v>
@@ -46356,7 +46092,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.570808427069226</v>
+        <v>1.535809576596063</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.597118643196673</v>
@@ -46445,7 +46181,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.561444083682866</v>
+        <v>1.523269881305352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.817272179957778</v>
@@ -46534,7 +46270,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.570907742916565</v>
+        <v>1.530269574731955</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.604974038206322</v>
@@ -46623,7 +46359,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.565557648327564</v>
+        <v>1.524696590800049</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.679585254337316</v>
@@ -46712,7 +46448,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.569956428916167</v>
+        <v>1.527642432737773</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.7534153779649</v>
@@ -46801,7 +46537,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568763337629699</v>
+        <v>1.527282835074688</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.447427622985766</v>
@@ -46890,7 +46626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.593897006647069</v>
+        <v>1.541094609573844</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.113367193225426</v>
@@ -46979,7 +46715,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.596204966041509</v>
+        <v>1.550890287487998</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.977367048931611</v>
@@ -47068,7 +46804,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595646019245454</v>
+        <v>1.552576692423482</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.038293674906592</v>
@@ -47157,7 +46893,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.592571571349485</v>
+        <v>1.549383211288922</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.834150012799994</v>
@@ -47246,7 +46982,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.591262985270817</v>
+        <v>1.548725943873245</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.972434529490288</v>
@@ -47335,7 +47071,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580780623397033</v>
+        <v>1.542069023616762</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.613854107031131</v>
@@ -47424,7 +47160,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572119822632841</v>
+        <v>1.539120584664186</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.109679162363213</v>
@@ -47513,7 +47249,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569237223207885</v>
+        <v>1.542259671335221</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.836865243374402</v>
@@ -47602,7 +47338,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.562332272932065</v>
+        <v>1.537218585841589</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.143339925171904</v>
@@ -47691,7 +47427,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.570199320175977</v>
+        <v>1.539111327120108</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.584532824743947</v>
@@ -47780,7 +47516,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.558138662759547</v>
+        <v>1.536727053988276</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.993370641313053</v>
@@ -47869,7 +47605,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.561100315513732</v>
+        <v>1.543524429096002</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.027086612307117</v>
@@ -47958,7 +47694,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.568948430620277</v>
+        <v>1.547676404584138</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.101531610553363</v>
@@ -48047,7 +47783,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.551750257791167</v>
+        <v>1.538678048625081</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.865675671024752</v>
@@ -48136,7 +47872,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546614760829786</v>
+        <v>1.537805466159403</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.126573696668206</v>
@@ -48225,7 +47961,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.529179561265458</v>
+        <v>1.527317573053876</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.706036373798809</v>
@@ -48314,7 +48050,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.512394807218042</v>
+        <v>1.51126662896834</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.849992595192387</v>
@@ -48403,7 +48139,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.51395726444098</v>
+        <v>1.515315717633147</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.104037142090348</v>
@@ -48492,7 +48228,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.509108999709162</v>
+        <v>1.505433907047485</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.048475931253364</v>
@@ -48581,7 +48317,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.509816349139819</v>
+        <v>1.505821841459377</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.064530266564121</v>
@@ -48670,7 +48406,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.538767033290029</v>
+        <v>1.523694786074597</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.015684892250219</v>
@@ -48759,7 +48495,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.544434785370002</v>
+        <v>1.526533720474897</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.11370498948298</v>
@@ -48848,7 +48584,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.547809144753455</v>
+        <v>1.524435415998092</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.068015073498836</v>
@@ -48937,7 +48673,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.547295638276519</v>
+        <v>1.522683047811007</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.047909711479824</v>
@@ -49026,7 +48762,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.5426873656004</v>
+        <v>1.52436085632846</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.626337783218164</v>
@@ -49115,7 +48851,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.548555581191965</v>
+        <v>1.52090644487582</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.362741042976098</v>
@@ -49204,7 +48940,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.512252340220673</v>
+        <v>1.500582579464618</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.437510723247185</v>
@@ -49293,7 +49029,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.50754885771315</v>
+        <v>1.499116498368318</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.398853967520043</v>
@@ -49382,7 +49118,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.513696572695666</v>
+        <v>1.504079258875734</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.335522617219238</v>
@@ -49471,7 +49207,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.52033825925385</v>
+        <v>1.503593437707135</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.300570954671944</v>
@@ -49560,7 +49296,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.540431728631444</v>
+        <v>1.523881037631719</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.468822637503822</v>
@@ -49649,7 +49385,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.555935507066134</v>
+        <v>1.534276988517153</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.512471860229456</v>
@@ -49738,7 +49474,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.543639556864967</v>
+        <v>1.523018939181632</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.521609623006156</v>
@@ -49827,7 +49563,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.530426611515164</v>
+        <v>1.517420916226464</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.487981030328334</v>
@@ -49916,7 +49652,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.518032791647433</v>
+        <v>1.505430402125575</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.445058892698676</v>
@@ -50005,7 +49741,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.518044071205716</v>
+        <v>1.511153915245627</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.453365974205741</v>
@@ -50094,7 +49830,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.524340500208416</v>
+        <v>1.516829779107459</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.45574440777139</v>
@@ -50183,7 +49919,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.519413564953516</v>
+        <v>1.516808635816815</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.343440386168996</v>
@@ -50272,7 +50008,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.513058469672954</v>
+        <v>1.5140857090043</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.467140941418136</v>
@@ -50361,7 +50097,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.519722589562864</v>
+        <v>1.519383285236471</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.386592649548517</v>
@@ -50450,7 +50186,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.542097290543446</v>
+        <v>1.539687593654504</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.356283566112092</v>
@@ -50539,7 +50275,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.549543497677237</v>
+        <v>1.542351568306895</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.020127389566773</v>
@@ -50628,7 +50364,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.549492244710876</v>
+        <v>1.534134279356137</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.739869173482099</v>
@@ -50717,7 +50453,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.552133666797537</v>
+        <v>1.538509085028136</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.915479278136512</v>
@@ -51003,7 +50739,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.426448919298576</v>
+        <v>1.433126818638336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.715177753456444</v>
@@ -51092,7 +50828,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.407570482114054</v>
+        <v>1.416867391217537</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.673489912478683</v>
@@ -51181,7 +50917,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.401051038617824</v>
+        <v>1.405642314157302</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.502811564358094</v>
@@ -51270,7 +51006,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.415388657812978</v>
+        <v>1.42197343418658</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.913568477563505</v>
@@ -51359,7 +51095,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439450651058066</v>
+        <v>1.445218380187314</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.894202067641591</v>
@@ -51448,7 +51184,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.465919758809793</v>
+        <v>1.471492388465726</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.856053548055192</v>
@@ -51537,7 +51273,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.463693133196499</v>
+        <v>1.467189355877058</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.364327234019593</v>
@@ -51626,7 +51362,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.495781122841103</v>
+        <v>1.494094431308715</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.678988027921776</v>
@@ -51715,7 +51451,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.49791845440616</v>
+        <v>1.492900675142297</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.766771942800903</v>
@@ -51804,7 +51540,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.50978978624525</v>
+        <v>1.50729126446312</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.516735533776624</v>
@@ -51893,7 +51629,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553854819728102</v>
+        <v>1.547505221056745</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.928828503720498</v>
@@ -51982,7 +51718,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.618371908719457</v>
+        <v>1.608425201421189</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.729230522370486</v>
@@ -52071,7 +51807,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.657346321339886</v>
+        <v>1.636967029264762</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.799587694475158</v>
@@ -52160,7 +51896,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65924293463663</v>
+        <v>1.642611943842438</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.693453379578894</v>
@@ -52249,7 +51985,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688335569784567</v>
+        <v>1.669682084019128</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.892343518266192</v>
@@ -52338,7 +52074,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.667908348696549</v>
+        <v>1.644939409461185</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.148163336401282</v>
@@ -52427,7 +52163,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.660943351967741</v>
+        <v>1.632381125003166</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.635873843679155</v>
@@ -52516,7 +52252,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.681727454775182</v>
+        <v>1.653425980674739</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.906544072407734</v>
@@ -52605,7 +52341,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655153917245761</v>
+        <v>1.627670357199707</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.004094746731924</v>
@@ -52694,7 +52430,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600720116010971</v>
+        <v>1.57716094364248</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.558659764393536</v>
@@ -52783,7 +52519,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612691602130909</v>
+        <v>1.588496729094372</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.681176765419085</v>
@@ -52872,7 +52608,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.626566175451944</v>
+        <v>1.601273309843513</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.47162194951064</v>
@@ -52961,7 +52697,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.625041134722996</v>
+        <v>1.602830689968692</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.667486592884952</v>
@@ -53050,7 +52786,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.641282177757483</v>
+        <v>1.621885399317541</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.594585978772895</v>
@@ -53139,7 +52875,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590445399899048</v>
+        <v>1.574150116410429</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.594977333206204</v>
@@ -53228,7 +52964,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588627460570053</v>
+        <v>1.57602187669099</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.732743087810183</v>
@@ -53317,7 +53053,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58769604348358</v>
+        <v>1.577260497051713</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.777084813000645</v>
@@ -53406,7 +53142,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.571348081111513</v>
+        <v>1.565997446855857</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.606232752231139</v>
@@ -53495,7 +53231,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.570947663763359</v>
+        <v>1.567845963584736</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.665843839801082</v>
@@ -53584,7 +53320,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.57105945080958</v>
+        <v>1.565386383386346</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.631393288893569</v>
@@ -53673,7 +53409,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.541361942394797</v>
+        <v>1.539462644582612</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.595682816659924</v>
@@ -53762,7 +53498,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570790956827732</v>
+        <v>1.5761721362724</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.723412447279589</v>
@@ -53851,7 +53587,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569474867253951</v>
+        <v>1.574985329157915</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.692552856215021</v>
@@ -53940,7 +53676,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566030177588602</v>
+        <v>1.570887993305782</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.679013475232453</v>
@@ -54029,7 +53765,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.602583852277151</v>
+        <v>1.608350852644391</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.969028377380746</v>
@@ -54118,7 +53854,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.602988052063911</v>
+        <v>1.608988953271729</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.837220318122865</v>
@@ -54207,7 +53943,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.612734909100483</v>
+        <v>1.617714092024409</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.761341848262995</v>
@@ -54296,7 +54032,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612371881659001</v>
+        <v>1.618168557630691</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.72973313773918</v>
@@ -54385,7 +54121,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.577775178121512</v>
+        <v>1.584172647973215</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.807184097288743</v>
@@ -54474,7 +54210,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624403236991103</v>
+        <v>1.626059973365688</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.579149267476045</v>
@@ -54563,7 +54299,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.605468751947797</v>
+        <v>1.606496711724731</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.713828905959918</v>
@@ -54652,7 +54388,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.607626107102486</v>
+        <v>1.605322770055413</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.797051866856837</v>
@@ -54741,7 +54477,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.619915715422764</v>
+        <v>1.618529858142489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.736285295770219</v>
@@ -54830,7 +54566,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.593914403698887</v>
+        <v>1.59381189492973</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.797746363667672</v>
@@ -54919,7 +54655,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598174675503743</v>
+        <v>1.597488623044244</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.577270663700699</v>
@@ -55008,7 +54744,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.656828788348474</v>
+        <v>1.64986273563218</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.665106815314723</v>
@@ -55097,7 +54833,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.639827943678771</v>
+        <v>1.627646448653294</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.741625943710236</v>
@@ -55186,7 +54922,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.635289464828644</v>
+        <v>1.630223681341602</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.820854408602196</v>
@@ -55275,7 +55011,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.676285530829758</v>
+        <v>1.666887068814823</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.727482116004409</v>
@@ -55364,7 +55100,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.671425990819794</v>
+        <v>1.65813981091099</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.634394609102256</v>
@@ -55453,7 +55189,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.658503839582842</v>
+        <v>1.641645024624734</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.785779042195245</v>
@@ -55542,7 +55278,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.623048541437048</v>
+        <v>1.610338198114326</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.66284493835389</v>
@@ -55631,7 +55367,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.605860961091184</v>
+        <v>1.595310073550646</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.635129508795255</v>
@@ -55720,7 +55456,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.647790508888136</v>
+        <v>1.630820784671061</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.766472290592742</v>
@@ -55809,7 +55545,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639833356486082</v>
+        <v>1.624822147843947</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.427533126444767</v>
@@ -55898,7 +55634,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.649425738680451</v>
+        <v>1.638132740988687</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.589081219292061</v>
@@ -55987,7 +55723,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.601496826696832</v>
+        <v>1.59283991466387</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.757898878514184</v>
@@ -56076,7 +55812,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.582675206377006</v>
+        <v>1.575882915683154</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.81072577485834</v>
@@ -56165,7 +55901,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.602297216196205</v>
+        <v>1.599392126662478</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.559334659488703</v>
@@ -56254,7 +55990,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.601811836484261</v>
+        <v>1.597409860007291</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.671552056510734</v>
@@ -56343,7 +56079,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.586296150667634</v>
+        <v>1.584930114783897</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.768163884531529</v>
@@ -56432,7 +56168,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.598680304985885</v>
+        <v>1.590768714996244</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.611636713100986</v>
@@ -56521,7 +56257,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.568603396262575</v>
+        <v>1.568961215655401</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.778425897317538</v>
@@ -56610,7 +56346,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.559559347829615</v>
+        <v>1.557911628198874</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.73555458821179</v>
@@ -56699,7 +56435,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.560869404957275</v>
+        <v>1.562217563513942</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.883516538415167</v>
@@ -56788,7 +56524,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.581582269886813</v>
+        <v>1.581321069231401</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.791925310329259</v>
@@ -56877,7 +56613,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.602112668719928</v>
+        <v>1.603102003475091</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.954670318483532</v>
@@ -56966,7 +56702,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.617920502191867</v>
+        <v>1.615887000645012</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.853867641018191</v>
@@ -57055,7 +56791,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.603530917203993</v>
+        <v>1.606871762678747</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.037296302521452</v>
@@ -57144,7 +56880,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.589606400242264</v>
+        <v>1.588456009126388</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.821548387045976</v>
@@ -57233,7 +56969,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.575712883918571</v>
+        <v>1.575379698157205</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.835648160510259</v>
@@ -57322,7 +57058,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.605258905599315</v>
+        <v>1.597403136024342</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.473068381185175</v>
@@ -57411,7 +57147,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.611560836557299</v>
+        <v>1.607327005813502</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.691736439893227</v>
@@ -57500,7 +57236,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.594794413673603</v>
+        <v>1.58804708280949</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.792770763341471</v>
@@ -57589,7 +57325,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.595332070400875</v>
+        <v>1.587708101047822</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.628228575374462</v>
@@ -57678,7 +57414,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.599810923047353</v>
+        <v>1.59550045792038</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.725256729311449</v>
@@ -57767,7 +57503,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.612234641943223</v>
+        <v>1.605967876055804</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.814816499289203</v>
@@ -57856,7 +57592,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.637022847840229</v>
+        <v>1.621618749165559</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.685316983031682</v>
@@ -57945,7 +57681,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.627511721125313</v>
+        <v>1.616120343025032</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.796793394529459</v>
@@ -58034,7 +57770,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.634992758912817</v>
+        <v>1.621713220277311</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.733992574160586</v>
@@ -58123,7 +57859,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.592113203594064</v>
+        <v>1.588013561816257</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.697871976087752</v>
@@ -58212,7 +57948,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.567099750676275</v>
+        <v>1.56459887761846</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.893908083845328</v>
@@ -58301,7 +58037,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.565310940819266</v>
+        <v>1.559197675185071</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.605187474578312</v>
@@ -58390,7 +58126,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.569962443068684</v>
+        <v>1.562790455622644</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.5585558183778</v>
@@ -58479,7 +58215,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.59027032261639</v>
+        <v>1.581343951823223</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.857143624056741</v>
@@ -58568,7 +58304,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.593397902501807</v>
+        <v>1.587440689858037</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.736246562719045</v>
@@ -58657,7 +58393,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.623760875597582</v>
+        <v>1.611153975539295</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.688027539278626</v>
